--- a/betty_data/model_result.xlsx
+++ b/betty_data/model_result.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="655">
   <si>
     <t>ForecastOptimism</t>
   </si>
@@ -72,1651 +72,1849 @@
     <t>FollowCoNumber</t>
   </si>
   <si>
-    <t>p</t>
+    <t>coef</t>
   </si>
   <si>
     <t>t</t>
   </si>
   <si>
-    <t>0.000***</t>
+    <t>0.02199***</t>
   </si>
   <si>
     <t>(44.030)</t>
   </si>
   <si>
+    <t>0.00388***</t>
+  </si>
+  <si>
     <t>(11.665)</t>
   </si>
   <si>
-    <t>0.543</t>
+    <t>0.00026</t>
   </si>
   <si>
     <t>(0.608)</t>
   </si>
   <si>
-    <t>0.008***</t>
+    <t>-0.00014***</t>
   </si>
   <si>
     <t>(-2.673)</t>
   </si>
   <si>
+    <t>-0.00009***</t>
+  </si>
+  <si>
     <t>(-6.169)</t>
   </si>
   <si>
-    <t>0.160</t>
+    <t>0.00001</t>
   </si>
   <si>
     <t>(1.405)</t>
   </si>
   <si>
+    <t>0.00017***</t>
+  </si>
+  <si>
     <t>(4.216)</t>
   </si>
   <si>
+    <t>0.00010***</t>
+  </si>
+  <si>
     <t>(5.243)</t>
   </si>
   <si>
-    <t>0.921</t>
+    <t>0.00000</t>
   </si>
   <si>
     <t>(0.099)</t>
   </si>
   <si>
+    <t>-0.04872***</t>
+  </si>
+  <si>
     <t>(-40.302)</t>
   </si>
   <si>
+    <t>0.09709***</t>
+  </si>
+  <si>
     <t>(5.180)</t>
   </si>
   <si>
-    <t>0.208</t>
+    <t>0.01567</t>
   </si>
   <si>
     <t>(1.260)</t>
   </si>
   <si>
-    <t>0.129</t>
+    <t>0.02383</t>
   </si>
   <si>
     <t>(1.518)</t>
   </si>
   <si>
-    <t>0.007***</t>
+    <t>-0.00515***</t>
   </si>
   <si>
     <t>(-2.718)</t>
   </si>
   <si>
-    <t>0.026**</t>
+    <t>0.00121**</t>
   </si>
   <si>
     <t>(2.223)</t>
   </si>
   <si>
-    <t>0.816</t>
+    <t>0.00004</t>
   </si>
   <si>
     <t>(0.233)</t>
   </si>
   <si>
-    <t>0.336</t>
+    <t>0.00148</t>
   </si>
   <si>
     <t>(0.962)</t>
   </si>
   <si>
+    <t>-0.00305***</t>
+  </si>
+  <si>
     <t>(-4.162)</t>
   </si>
   <si>
-    <t>0.004***</t>
+    <t>0.00079***</t>
   </si>
   <si>
     <t>(2.903)</t>
   </si>
   <si>
-    <t>0.001***</t>
+    <t>-0.15812***</t>
   </si>
   <si>
     <t>(-3.476)</t>
   </si>
   <si>
+    <t>0.02110**</t>
+  </si>
+  <si>
+    <t>(2.394)</t>
+  </si>
+  <si>
+    <t>0.04062***</t>
+  </si>
+  <si>
+    <t>(6.954)</t>
+  </si>
+  <si>
+    <t>0.01981***</t>
+  </si>
+  <si>
+    <t>(2.667)</t>
+  </si>
+  <si>
+    <t>0.00160*</t>
+  </si>
+  <si>
+    <t>(1.760)</t>
+  </si>
+  <si>
+    <t>-0.00130***</t>
+  </si>
+  <si>
+    <t>(-4.910)</t>
+  </si>
+  <si>
+    <t>0.00040***</t>
+  </si>
+  <si>
+    <t>(5.437)</t>
+  </si>
+  <si>
+    <t>-0.00310***</t>
+  </si>
+  <si>
+    <t>(-4.236)</t>
+  </si>
+  <si>
+    <t>-0.00122***</t>
+  </si>
+  <si>
+    <t>(-3.609)</t>
+  </si>
+  <si>
+    <t>0.00024*</t>
+  </si>
+  <si>
+    <t>(1.860)</t>
+  </si>
+  <si>
+    <t>0.02121</t>
+  </si>
+  <si>
+    <t>(0.992)</t>
+  </si>
+  <si>
+    <t>-0.37697***</t>
+  </si>
+  <si>
+    <t>(-6.059)</t>
+  </si>
+  <si>
+    <t>-0.06387</t>
+  </si>
+  <si>
+    <t>(-1.547)</t>
+  </si>
+  <si>
+    <t>0.07741</t>
+  </si>
+  <si>
+    <t>(1.485)</t>
+  </si>
+  <si>
+    <t>0.00517</t>
+  </si>
+  <si>
+    <t>(0.822)</t>
+  </si>
+  <si>
+    <t>-0.00207</t>
+  </si>
+  <si>
+    <t>(-1.146)</t>
+  </si>
+  <si>
+    <t>0.00029</t>
+  </si>
+  <si>
+    <t>(0.587)</t>
+  </si>
+  <si>
+    <t>0.00076</t>
+  </si>
+  <si>
+    <t>(0.150)</t>
+  </si>
+  <si>
+    <t>0.00034</t>
+  </si>
+  <si>
+    <t>(0.142)</t>
+  </si>
+  <si>
+    <t>0.00083</t>
+  </si>
+  <si>
+    <t>(0.914)</t>
+  </si>
+  <si>
+    <t>0.52489***</t>
+  </si>
+  <si>
+    <t>(3.477)</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>IsStarAnalyst</t>
+  </si>
+  <si>
+    <t>LOSS</t>
+  </si>
+  <si>
+    <t>37304.000</t>
+  </si>
+  <si>
+    <t>0.021</t>
+  </si>
+  <si>
+    <t>0.137</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>-0.258</t>
+  </si>
+  <si>
+    <t>0.058</t>
+  </si>
+  <si>
+    <t>-0.744</t>
+  </si>
+  <si>
+    <t>0.406</t>
+  </si>
+  <si>
+    <t>0.180</t>
+  </si>
+  <si>
+    <t>9.868</t>
+  </si>
+  <si>
+    <t>20.244</t>
+  </si>
+  <si>
+    <t>48.957</t>
+  </si>
+  <si>
+    <t>0.138</t>
+  </si>
+  <si>
+    <t>0.607</t>
+  </si>
+  <si>
+    <t>0.034</t>
+  </si>
+  <si>
+    <t>3.422</t>
+  </si>
+  <si>
+    <t>0.575</t>
+  </si>
+  <si>
+    <t>3.299</t>
+  </si>
+  <si>
+    <t>7.226</t>
+  </si>
+  <si>
+    <t>29.488</t>
+  </si>
+  <si>
+    <t>103.444</t>
+  </si>
+  <si>
+    <t>0.384</t>
+  </si>
+  <si>
+    <t>8.211</t>
+  </si>
+  <si>
+    <t>21.710</t>
+  </si>
+  <si>
+    <t>59.443</t>
+  </si>
+  <si>
+    <t>0.327</t>
+  </si>
+  <si>
+    <t>0.488</t>
+  </si>
+  <si>
+    <t>-0.210</t>
+  </si>
+  <si>
+    <t>-240.000</t>
+  </si>
+  <si>
+    <t>-4.000</t>
+  </si>
+  <si>
+    <t>-238.000</t>
+  </si>
+  <si>
+    <t>-23.010</t>
+  </si>
+  <si>
+    <t>-195.000</t>
+  </si>
+  <si>
+    <t>-667.500</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>-9.062</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
+    <t>-0.360</t>
+  </si>
+  <si>
+    <t>-0.260</t>
+  </si>
+  <si>
+    <t>-4.740</t>
+  </si>
+  <si>
+    <t>-12.000</t>
+  </si>
+  <si>
+    <t>-43.500</t>
+  </si>
+  <si>
+    <t>3.960</t>
+  </si>
+  <si>
+    <t>9.000</t>
+  </si>
+  <si>
+    <t>17.000</t>
+  </si>
+  <si>
+    <t>0.051</t>
+  </si>
+  <si>
+    <t>0.015</t>
+  </si>
+  <si>
+    <t>0.050</t>
+  </si>
+  <si>
+    <t>-1.160</t>
+  </si>
+  <si>
+    <t>-3.330</t>
+  </si>
+  <si>
+    <t>-11.165</t>
+  </si>
+  <si>
+    <t>7.170</t>
+  </si>
+  <si>
+    <t>15.000</t>
+  </si>
+  <si>
+    <t>33.000</t>
+  </si>
+  <si>
+    <t>0.123</t>
+  </si>
+  <si>
+    <t>0.360</t>
+  </si>
+  <si>
+    <t>0.390</t>
+  </si>
+  <si>
+    <t>3.200</t>
+  </si>
+  <si>
+    <t>5.440</t>
+  </si>
+  <si>
+    <t>21.000</t>
+  </si>
+  <si>
+    <t>13.460</t>
+  </si>
+  <si>
+    <t>24.000</t>
+  </si>
+  <si>
+    <t>59.000</t>
+  </si>
+  <si>
+    <t>0.221</t>
+  </si>
+  <si>
+    <t>0.977</t>
+  </si>
+  <si>
+    <t>168.280</t>
+  </si>
+  <si>
+    <t>2.000</t>
+  </si>
+  <si>
+    <t>39.400</t>
+  </si>
+  <si>
+    <t>364.080</t>
+  </si>
+  <si>
+    <t>1336.960</t>
+  </si>
+  <si>
+    <t>54.020</t>
+  </si>
+  <si>
+    <t>225.000</t>
+  </si>
+  <si>
+    <t>593.000</t>
+  </si>
+  <si>
+    <t>1.175</t>
+  </si>
+  <si>
+    <t>1.000***</t>
+  </si>
+  <si>
+    <t>0.138***</t>
+  </si>
+  <si>
+    <t>0.063***</t>
+  </si>
+  <si>
+    <t>-0.078***</t>
+  </si>
+  <si>
+    <t>-0.011**</t>
+  </si>
+  <si>
+    <t>0.011**</t>
+  </si>
+  <si>
+    <t>0.015***</t>
+  </si>
+  <si>
+    <t>0.006</t>
+  </si>
+  <si>
+    <t>0.054***</t>
+  </si>
+  <si>
+    <t>0.068***</t>
+  </si>
+  <si>
+    <t>-0.077***</t>
+  </si>
+  <si>
+    <t>-0.024***</t>
+  </si>
+  <si>
+    <t>0.044***</t>
+  </si>
+  <si>
+    <t>-0.191***</t>
+  </si>
+  <si>
+    <t>-0.004</t>
+  </si>
+  <si>
+    <t>-0.001</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>-0.006</t>
+  </si>
+  <si>
+    <t>-0.002</t>
+  </si>
+  <si>
+    <t>-0.009*</t>
+  </si>
+  <si>
+    <t>-0.007</t>
+  </si>
+  <si>
+    <t>-0.016***</t>
+  </si>
+  <si>
+    <t>-0.010*</t>
+  </si>
+  <si>
+    <t>-0.034***</t>
+  </si>
+  <si>
+    <t>-0.014***</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t>-0.018***</t>
+  </si>
+  <si>
+    <t>-0.031***</t>
+  </si>
+  <si>
+    <t>-0.022***</t>
+  </si>
+  <si>
+    <t>0.031***</t>
+  </si>
+  <si>
+    <t>0.013**</t>
+  </si>
+  <si>
+    <t>0.010*</t>
+  </si>
+  <si>
+    <t>0.014***</t>
+  </si>
+  <si>
+    <t>0.012**</t>
+  </si>
+  <si>
+    <t>0.417***</t>
+  </si>
+  <si>
+    <t>0.497***</t>
+  </si>
+  <si>
+    <t>0.251***</t>
+  </si>
+  <si>
+    <t>0.883***</t>
+  </si>
+  <si>
+    <t>0.124***</t>
+  </si>
+  <si>
+    <t>0.104***</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>0.886***</t>
+  </si>
+  <si>
+    <t>0.184***</t>
+  </si>
+  <si>
+    <t>0.365***</t>
+  </si>
+  <si>
+    <t>0.638***</t>
+  </si>
+  <si>
+    <t>0.576***</t>
+  </si>
+  <si>
+    <t>-0.003</t>
+  </si>
+  <si>
+    <t>-0.017***</t>
+  </si>
+  <si>
+    <t>0.248***</t>
+  </si>
+  <si>
+    <t>0.443***</t>
+  </si>
+  <si>
+    <t>0.535***</t>
+  </si>
+  <si>
+    <t>0.562***</t>
+  </si>
+  <si>
+    <t>-0.019***</t>
+  </si>
+  <si>
+    <t>0.279***</t>
+  </si>
+  <si>
+    <t>0.199***</t>
+  </si>
+  <si>
+    <t>0.256***</t>
+  </si>
+  <si>
+    <t>0.025***</t>
+  </si>
+  <si>
+    <t>0.183***</t>
+  </si>
+  <si>
+    <t>0.160***</t>
+  </si>
+  <si>
+    <t>-0.008</t>
+  </si>
+  <si>
+    <t>-0.027***</t>
+  </si>
+  <si>
+    <t>0.897***</t>
+  </si>
+  <si>
+    <t>-0.026***</t>
+  </si>
+  <si>
+    <t>-0.039***</t>
+  </si>
+  <si>
+    <t>-0.033***</t>
+  </si>
+  <si>
+    <t>-0.108***</t>
+  </si>
+  <si>
+    <t>C(Big4)[T.1.0]</t>
+  </si>
+  <si>
+    <t>C(SecLoct)[T.1.0]</t>
+  </si>
+  <si>
+    <t>ReportAttention</t>
+  </si>
+  <si>
+    <t>AnaAttention</t>
+  </si>
+  <si>
+    <t>TotalFinancialProportion</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>CompanyOpacity</t>
+  </si>
+  <si>
+    <t>np.log(CompanySize)</t>
+  </si>
+  <si>
+    <t>-0.12086***</t>
+  </si>
+  <si>
+    <t>(-32.278)</t>
+  </si>
+  <si>
+    <t>0.00268***</t>
+  </si>
+  <si>
+    <t>(5.868)</t>
+  </si>
+  <si>
+    <t>-0.00615***</t>
+  </si>
+  <si>
+    <t>(-12.470)</t>
+  </si>
+  <si>
+    <t>-0.00292***</t>
+  </si>
+  <si>
+    <t>(-4.785)</t>
+  </si>
+  <si>
+    <t>-0.00012***</t>
+  </si>
+  <si>
+    <t>(-10.963)</t>
+  </si>
+  <si>
+    <t>0.00009***</t>
+  </si>
+  <si>
+    <t>(2.755)</t>
+  </si>
+  <si>
+    <t>-0.00028***</t>
+  </si>
+  <si>
+    <t>(-8.259)</t>
+  </si>
+  <si>
+    <t>-0.00535***</t>
+  </si>
+  <si>
+    <t>(-12.289)</t>
+  </si>
+  <si>
+    <t>-0.02863***</t>
+  </si>
+  <si>
+    <t>(-16.734)</t>
+  </si>
+  <si>
+    <t>0.00357***</t>
+  </si>
+  <si>
+    <t>(7.216)</t>
+  </si>
+  <si>
+    <t>0.00466***</t>
+  </si>
+  <si>
+    <t>(16.252)</t>
+  </si>
+  <si>
+    <t>0.00620***</t>
+  </si>
+  <si>
+    <t>(39.589)</t>
+  </si>
+  <si>
+    <t>0.22035</t>
+  </si>
+  <si>
+    <t>(1.547)</t>
+  </si>
+  <si>
+    <t>-0.02765</t>
+  </si>
+  <si>
+    <t>(-1.566)</t>
+  </si>
+  <si>
+    <t>-0.02635</t>
+  </si>
+  <si>
+    <t>(-1.430)</t>
+  </si>
+  <si>
+    <t>0.06602***</t>
+  </si>
+  <si>
+    <t>(2.774)</t>
+  </si>
+  <si>
+    <t>0.00088**</t>
+  </si>
+  <si>
+    <t>(2.144)</t>
+  </si>
+  <si>
+    <t>-0.00540***</t>
+  </si>
+  <si>
+    <t>(-4.383)</t>
+  </si>
+  <si>
+    <t>(-1.574)</t>
+  </si>
+  <si>
+    <t>0.02001</t>
+  </si>
+  <si>
+    <t>(1.367)</t>
+  </si>
+  <si>
+    <t>0.04292</t>
+  </si>
+  <si>
+    <t>(0.643)</t>
+  </si>
+  <si>
+    <t>0.02309</t>
+  </si>
+  <si>
+    <t>(1.265)</t>
+  </si>
+  <si>
+    <t>-0.00603</t>
+  </si>
+  <si>
+    <t>(-0.545)</t>
+  </si>
+  <si>
+    <t>-0.00306</t>
+  </si>
+  <si>
+    <t>(-0.517)</t>
+  </si>
+  <si>
+    <t>0.26109***</t>
+  </si>
+  <si>
+    <t>(3.694)</t>
+  </si>
+  <si>
+    <t>0.01621*</t>
+  </si>
+  <si>
+    <t>(1.866)</t>
+  </si>
+  <si>
+    <t>0.03124***</t>
+  </si>
+  <si>
+    <t>(3.464)</t>
+  </si>
+  <si>
+    <t>0.01718</t>
+  </si>
+  <si>
+    <t>(1.483)</t>
+  </si>
+  <si>
+    <t>-0.00264***</t>
+  </si>
+  <si>
+    <t>(-12.865)</t>
+  </si>
+  <si>
+    <t>0.00507***</t>
+  </si>
+  <si>
+    <t>(8.285)</t>
+  </si>
+  <si>
+    <t>0.00212***</t>
+  </si>
+  <si>
+    <t>(3.273)</t>
+  </si>
+  <si>
+    <t>-0.02458***</t>
+  </si>
+  <si>
+    <t>(-3.483)</t>
+  </si>
+  <si>
+    <t>0.04373</t>
+  </si>
+  <si>
+    <t>(1.365)</t>
+  </si>
+  <si>
+    <t>0.00240</t>
+  </si>
+  <si>
+    <t>(0.266)</t>
+  </si>
+  <si>
+    <t>0.00320</t>
+  </si>
+  <si>
+    <t>(0.593)</t>
+  </si>
+  <si>
+    <t>-0.01145***</t>
+  </si>
+  <si>
+    <t>(-3.889)</t>
+  </si>
+  <si>
+    <t>-0.27957**</t>
+  </si>
+  <si>
+    <t>(-2.140)</t>
+  </si>
+  <si>
+    <t>0.00734</t>
+  </si>
+  <si>
+    <t>(0.453)</t>
+  </si>
+  <si>
+    <t>0.00739</t>
+  </si>
+  <si>
+    <t>(0.437)</t>
+  </si>
+  <si>
+    <t>-0.03948*</t>
+  </si>
+  <si>
+    <t>(-1.809)</t>
+  </si>
+  <si>
+    <t>-0.00022</t>
+  </si>
+  <si>
+    <t>(-0.583)</t>
+  </si>
+  <si>
+    <t>0.00698***</t>
+  </si>
+  <si>
+    <t>(6.171)</t>
+  </si>
+  <si>
+    <t>0.00113</t>
+  </si>
+  <si>
+    <t>(0.937)</t>
+  </si>
+  <si>
+    <t>-0.02481*</t>
+  </si>
+  <si>
+    <t>(-1.860)</t>
+  </si>
+  <si>
+    <t>-0.05671</t>
+  </si>
+  <si>
+    <t>(-0.926)</t>
+  </si>
+  <si>
+    <t>0.01852</t>
+  </si>
+  <si>
+    <t>(1.106)</t>
+  </si>
+  <si>
+    <t>0.00634</t>
+  </si>
+  <si>
+    <t>(0.625)</t>
+  </si>
+  <si>
+    <t>0.00116</t>
+  </si>
+  <si>
+    <t>(0.214)</t>
+  </si>
+  <si>
+    <t>SecLoct</t>
+  </si>
+  <si>
+    <t>Big4</t>
+  </si>
+  <si>
+    <t>CompanySize</t>
+  </si>
+  <si>
+    <t>27455.000</t>
+  </si>
+  <si>
+    <t>0.098</t>
+  </si>
+  <si>
+    <t>-0.232</t>
+  </si>
+  <si>
+    <t>1.681</t>
+  </si>
+  <si>
+    <t>53.699</t>
+  </si>
+  <si>
+    <t>22.316</t>
+  </si>
+  <si>
+    <t>7.859</t>
+  </si>
+  <si>
+    <t>0.076</t>
+  </si>
+  <si>
+    <t>0.499</t>
+  </si>
+  <si>
+    <t>0.184</t>
+  </si>
+  <si>
+    <t>0.501</t>
+  </si>
+  <si>
+    <t>35316444837.028</t>
+  </si>
+  <si>
+    <t>0.126</t>
+  </si>
+  <si>
+    <t>0.364</t>
+  </si>
+  <si>
+    <t>3.548</t>
+  </si>
+  <si>
+    <t>0.571</t>
+  </si>
+  <si>
+    <t>3.431</t>
+  </si>
+  <si>
+    <t>0.611</t>
+  </si>
+  <si>
+    <t>39.898</t>
+  </si>
+  <si>
+    <t>12.790</t>
+  </si>
+  <si>
+    <t>5.229</t>
+  </si>
+  <si>
+    <t>0.266</t>
+  </si>
+  <si>
+    <t>0.500</t>
+  </si>
+  <si>
+    <t>0.388</t>
+  </si>
+  <si>
+    <t>9.051</t>
+  </si>
+  <si>
+    <t>75565209833.229</t>
+  </si>
+  <si>
+    <t>0.309</t>
+  </si>
+  <si>
+    <t>0.595</t>
+  </si>
+  <si>
+    <t>-0.918</t>
+  </si>
+  <si>
+    <t>114080998.280</t>
+  </si>
+  <si>
+    <t>-2.220</t>
+  </si>
+  <si>
+    <t>-0.370</t>
+  </si>
+  <si>
+    <t>-0.250</t>
+  </si>
+  <si>
+    <t>12.000</t>
+  </si>
+  <si>
+    <t>4.070</t>
+  </si>
+  <si>
+    <t>0.020</t>
+  </si>
+  <si>
+    <t>4491860820.790</t>
+  </si>
+  <si>
+    <t>0.044</t>
+  </si>
+  <si>
+    <t>0.014</t>
+  </si>
+  <si>
+    <t>-0.010</t>
+  </si>
+  <si>
+    <t>0.060</t>
+  </si>
+  <si>
+    <t>44.000</t>
+  </si>
+  <si>
+    <t>6.784</t>
+  </si>
+  <si>
+    <t>0.147</t>
+  </si>
+  <si>
+    <t>9695002971.160</t>
+  </si>
+  <si>
+    <t>0.107</t>
+  </si>
+  <si>
+    <t>0.033</t>
+  </si>
+  <si>
+    <t>0.350</t>
+  </si>
+  <si>
+    <t>0.410</t>
+  </si>
+  <si>
+    <t>72.000</t>
+  </si>
+  <si>
+    <t>31.000</t>
+  </si>
+  <si>
+    <t>10.770</t>
+  </si>
+  <si>
+    <t>0.292</t>
+  </si>
+  <si>
+    <t>32710619895.000</t>
+  </si>
+  <si>
+    <t>0.203</t>
+  </si>
+  <si>
+    <t>0.620</t>
+  </si>
+  <si>
+    <t>4.000</t>
+  </si>
+  <si>
+    <t>219.000</t>
+  </si>
+  <si>
+    <t>65.000</t>
+  </si>
+  <si>
+    <t>43.287</t>
+  </si>
+  <si>
+    <t>363.068</t>
+  </si>
+  <si>
+    <t>611295567689.290</t>
+  </si>
+  <si>
+    <t>4.530</t>
+  </si>
+  <si>
+    <t>0.139***</t>
+  </si>
+  <si>
+    <t>0.060***</t>
+  </si>
+  <si>
+    <t>0.084***</t>
+  </si>
+  <si>
+    <t>-0.073***</t>
+  </si>
+  <si>
+    <t>-0.083***</t>
+  </si>
+  <si>
+    <t>-0.122***</t>
+  </si>
+  <si>
+    <t>0.016***</t>
+  </si>
+  <si>
+    <t>-0.037***</t>
+  </si>
+  <si>
+    <t>-0.020***</t>
+  </si>
+  <si>
+    <t>-0.065***</t>
+  </si>
+  <si>
+    <t>-0.042***</t>
+  </si>
+  <si>
+    <t>0.040***</t>
+  </si>
+  <si>
+    <t>-0.049***</t>
+  </si>
+  <si>
+    <t>-0.015**</t>
+  </si>
+  <si>
+    <t>0.009</t>
+  </si>
+  <si>
+    <t>-0.012**</t>
+  </si>
+  <si>
+    <t>-0.009</t>
+  </si>
+  <si>
+    <t>-0.013**</t>
+  </si>
+  <si>
+    <t>0.036***</t>
+  </si>
+  <si>
+    <t>-0.091***</t>
+  </si>
+  <si>
+    <t>-0.056***</t>
+  </si>
+  <si>
+    <t>0.029***</t>
+  </si>
+  <si>
+    <t>0.038***</t>
+  </si>
+  <si>
+    <t>-0.035***</t>
+  </si>
+  <si>
+    <t>0.023***</t>
+  </si>
+  <si>
+    <t>0.043***</t>
+  </si>
+  <si>
+    <t>0.052***</t>
+  </si>
+  <si>
+    <t>0.019***</t>
+  </si>
+  <si>
+    <t>0.014**</t>
+  </si>
+  <si>
+    <t>0.018***</t>
+  </si>
+  <si>
+    <t>-0.298***</t>
+  </si>
+  <si>
+    <t>-0.280***</t>
+  </si>
+  <si>
+    <t>-0.058***</t>
+  </si>
+  <si>
+    <t>0.117***</t>
+  </si>
+  <si>
+    <t>-0.225***</t>
+  </si>
+  <si>
+    <t>-0.238***</t>
+  </si>
+  <si>
+    <t>-0.099***</t>
+  </si>
+  <si>
+    <t>-0.028***</t>
+  </si>
+  <si>
+    <t>0.880***</t>
+  </si>
+  <si>
+    <t>-0.109***</t>
+  </si>
+  <si>
+    <t>0.396***</t>
+  </si>
+  <si>
+    <t>0.602***</t>
+  </si>
+  <si>
+    <t>0.112***</t>
+  </si>
+  <si>
+    <t>0.095***</t>
+  </si>
+  <si>
+    <t>0.049***</t>
+  </si>
+  <si>
+    <t>0.076***</t>
+  </si>
+  <si>
+    <t>0.307***</t>
+  </si>
+  <si>
+    <t>0.338***</t>
+  </si>
+  <si>
+    <t>0.153***</t>
+  </si>
+  <si>
+    <t>0.268***</t>
+  </si>
+  <si>
+    <t>-0.014**</t>
+  </si>
+  <si>
+    <t>0.101***</t>
+  </si>
+  <si>
+    <t>-0.151***</t>
+  </si>
+  <si>
+    <t>0.072***</t>
+  </si>
+  <si>
+    <t>0.092***</t>
+  </si>
+  <si>
+    <t>0.067***</t>
+  </si>
+  <si>
+    <t>-0.021***</t>
+  </si>
+  <si>
+    <t>-0.223***</t>
+  </si>
+  <si>
+    <t>0.162***</t>
+  </si>
+  <si>
+    <t>0.635***</t>
+  </si>
+  <si>
+    <t>0.394***</t>
+  </si>
+  <si>
+    <t>0.041***</t>
+  </si>
+  <si>
+    <t>0.026***</t>
+  </si>
+  <si>
+    <t>-0.036***</t>
+  </si>
+  <si>
+    <t>-0.139***</t>
+  </si>
+  <si>
+    <t>0.261***</t>
+  </si>
+  <si>
+    <t>C(SecSize)[T.1.0]</t>
+  </si>
+  <si>
+    <t>C(underwriter)[T.1.0]</t>
+  </si>
+  <si>
+    <t>StarAnalyst</t>
+  </si>
+  <si>
+    <t>ActiveAnalyst</t>
+  </si>
+  <si>
+    <t>ReportNumber</t>
+  </si>
+  <si>
+    <t>-0.08773***</t>
+  </si>
+  <si>
+    <t>(-25.778)</t>
+  </si>
+  <si>
+    <t>0.00260***</t>
+  </si>
+  <si>
+    <t>(5.135)</t>
+  </si>
+  <si>
+    <t>-0.00400***</t>
+  </si>
+  <si>
+    <t>(-5.636)</t>
+  </si>
+  <si>
+    <t>-0.00172***</t>
+  </si>
+  <si>
+    <t>(-3.779)</t>
+  </si>
+  <si>
+    <t>0.00018***</t>
+  </si>
+  <si>
+    <t>(10.183)</t>
+  </si>
+  <si>
+    <t>0.00003**</t>
+  </si>
+  <si>
+    <t>(2.071)</t>
+  </si>
+  <si>
+    <t>-0.00001***</t>
+  </si>
+  <si>
+    <t>(-17.207)</t>
+  </si>
+  <si>
+    <t>0.00496***</t>
+  </si>
+  <si>
+    <t>(33.775)</t>
+  </si>
+  <si>
+    <t>-0.04016***</t>
+  </si>
+  <si>
+    <t>(-22.331)</t>
+  </si>
+  <si>
+    <t>-0.00005</t>
+  </si>
+  <si>
+    <t>(-0.110)</t>
+  </si>
+  <si>
+    <t>1.33703***</t>
+  </si>
+  <si>
+    <t>(2.711)</t>
+  </si>
+  <si>
+    <t>0.24894***</t>
+  </si>
+  <si>
+    <t>(3.418)</t>
+  </si>
+  <si>
+    <t>-0.09932</t>
+  </si>
+  <si>
+    <t>(-0.961)</t>
+  </si>
+  <si>
+    <t>0.05300</t>
+  </si>
+  <si>
+    <t>(0.798)</t>
+  </si>
+  <si>
+    <t>0.00346</t>
+  </si>
+  <si>
+    <t>(1.408)</t>
+  </si>
+  <si>
+    <t>0.00008</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>-0.00017***</t>
+  </si>
+  <si>
+    <t>(-3.114)</t>
+  </si>
+  <si>
+    <t>-0.05056**</t>
+  </si>
+  <si>
+    <t>(-2.398)</t>
+  </si>
+  <si>
+    <t>-0.69730***</t>
+  </si>
+  <si>
+    <t>(-2.667)</t>
+  </si>
+  <si>
+    <t>0.00214</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>0.47702***</t>
+  </si>
+  <si>
+    <t>(6.918)</t>
+  </si>
+  <si>
+    <t>0.15706***</t>
+  </si>
+  <si>
+    <t>(15.613)</t>
+  </si>
+  <si>
+    <t>-0.00471</t>
+  </si>
+  <si>
+    <t>(-0.328)</t>
+  </si>
+  <si>
+    <t>0.03422***</t>
+  </si>
+  <si>
+    <t>(3.715)</t>
+  </si>
+  <si>
+    <t>0.00302***</t>
+  </si>
+  <si>
+    <t>(8.737)</t>
+  </si>
+  <si>
+    <t>-0.00227***</t>
+  </si>
+  <si>
+    <t>(-8.315)</t>
+  </si>
+  <si>
+    <t>-0.00008***</t>
+  </si>
+  <si>
+    <t>(-10.230)</t>
+  </si>
+  <si>
+    <t>-0.02041***</t>
+  </si>
+  <si>
+    <t>(-6.905)</t>
+  </si>
+  <si>
+    <t>-0.05250</t>
+  </si>
+  <si>
+    <t>(-1.465)</t>
+  </si>
+  <si>
+    <t>0.04929***</t>
+  </si>
+  <si>
+    <t>(5.771)</t>
+  </si>
+  <si>
+    <t>-1.68787***</t>
+  </si>
+  <si>
+    <t>(-3.534)</t>
+  </si>
+  <si>
+    <t>0.02287</t>
+  </si>
+  <si>
+    <t>(0.324)</t>
+  </si>
+  <si>
+    <t>0.01226</t>
+  </si>
+  <si>
+    <t>(0.123)</t>
+  </si>
+  <si>
+    <t>-0.05413</t>
+  </si>
+  <si>
+    <t>(-0.842)</t>
+  </si>
+  <si>
+    <t>-0.00073</t>
+  </si>
+  <si>
+    <t>(-0.305)</t>
+  </si>
+  <si>
+    <t>0.00005</t>
+  </si>
+  <si>
+    <t>(0.029)</t>
+  </si>
+  <si>
+    <t>(0.810)</t>
+  </si>
+  <si>
+    <t>0.05595***</t>
+  </si>
+  <si>
+    <t>(2.739)</t>
+  </si>
+  <si>
+    <t>0.49113*</t>
+  </si>
+  <si>
+    <t>(1.940)</t>
+  </si>
+  <si>
+    <t>0.05106</t>
+  </si>
+  <si>
+    <t>(0.854)</t>
+  </si>
+  <si>
+    <t>SecSize</t>
+  </si>
+  <si>
+    <t>underwriter</t>
+  </si>
+  <si>
+    <t>17702.000</t>
+  </si>
+  <si>
+    <t>0.018</t>
+  </si>
+  <si>
+    <t>0.141</t>
+  </si>
+  <si>
+    <t>0.011</t>
+  </si>
+  <si>
+    <t>-0.294</t>
+  </si>
+  <si>
+    <t>0.691</t>
+  </si>
+  <si>
+    <t>14.472</t>
+  </si>
+  <si>
+    <t>46.330</t>
+  </si>
+  <si>
+    <t>0.083</t>
+  </si>
+  <si>
+    <t>1076.269</t>
+  </si>
+  <si>
+    <t>0.761</t>
+  </si>
+  <si>
+    <t>32026634450.889</t>
+  </si>
+  <si>
+    <t>0.125</t>
+  </si>
+  <si>
+    <t>0.400</t>
+  </si>
+  <si>
+    <t>3.821</t>
+  </si>
+  <si>
+    <t>0.563</t>
+  </si>
+  <si>
+    <t>3.700</t>
+  </si>
+  <si>
+    <t>0.462</t>
+  </si>
+  <si>
+    <t>17.695</t>
+  </si>
+  <si>
+    <t>21.482</t>
+  </si>
+  <si>
+    <t>0.276</t>
+  </si>
+  <si>
+    <t>720.519</t>
+  </si>
+  <si>
+    <t>0.426</t>
+  </si>
+  <si>
+    <t>75345385569.722</t>
+  </si>
+  <si>
+    <t>0.622</t>
+  </si>
+  <si>
+    <t>-0.159</t>
+  </si>
+  <si>
+    <t>-0.380</t>
+  </si>
+  <si>
+    <t>-0.280</t>
+  </si>
+  <si>
+    <t>32.000</t>
+  </si>
+  <si>
+    <t>552.000</t>
+  </si>
+  <si>
+    <t>4454437637.450</t>
+  </si>
+  <si>
+    <t>7.000</t>
+  </si>
+  <si>
+    <t>873.000</t>
+  </si>
+  <si>
+    <t>9009014201.700</t>
+  </si>
+  <si>
+    <t>0.110</t>
+  </si>
+  <si>
+    <t>0.028</t>
+  </si>
+  <si>
+    <t>58.000</t>
+  </si>
+  <si>
+    <t>1496.000</t>
+  </si>
+  <si>
+    <t>24518246733.190</t>
+  </si>
+  <si>
+    <t>0.209</t>
+  </si>
+  <si>
+    <t>0.640</t>
+  </si>
+  <si>
+    <t>64.000</t>
+  </si>
+  <si>
+    <t>121.000</t>
+  </si>
+  <si>
+    <t>3261.000</t>
+  </si>
+  <si>
+    <t>0.771</t>
+  </si>
+  <si>
+    <t>0.174***</t>
+  </si>
+  <si>
+    <t>-0.110***</t>
+  </si>
+  <si>
+    <t>0.032***</t>
+  </si>
+  <si>
+    <t>0.045***</t>
+  </si>
+  <si>
+    <t>-0.011</t>
+  </si>
+  <si>
+    <t>0.109***</t>
+  </si>
+  <si>
+    <t>-0.112***</t>
+  </si>
+  <si>
+    <t>-0.131***</t>
+  </si>
+  <si>
+    <t>0.012</t>
+  </si>
+  <si>
+    <t>-0.043***</t>
+  </si>
+  <si>
+    <t>0.016**</t>
+  </si>
+  <si>
+    <t>-0.062***</t>
+  </si>
+  <si>
+    <t>0.014*</t>
+  </si>
+  <si>
     <t>0.017**</t>
-  </si>
-  <si>
-    <t>(2.394)</t>
-  </si>
-  <si>
-    <t>(6.954)</t>
-  </si>
-  <si>
-    <t>(2.667)</t>
-  </si>
-  <si>
-    <t>0.078*</t>
-  </si>
-  <si>
-    <t>(1.760)</t>
-  </si>
-  <si>
-    <t>(-4.910)</t>
-  </si>
-  <si>
-    <t>(5.437)</t>
-  </si>
-  <si>
-    <t>(-4.236)</t>
-  </si>
-  <si>
-    <t>(-3.609)</t>
-  </si>
-  <si>
-    <t>0.063*</t>
-  </si>
-  <si>
-    <t>(1.860)</t>
-  </si>
-  <si>
-    <t>0.321</t>
-  </si>
-  <si>
-    <t>(0.992)</t>
-  </si>
-  <si>
-    <t>(-6.059)</t>
-  </si>
-  <si>
-    <t>0.122</t>
-  </si>
-  <si>
-    <t>(-1.547)</t>
-  </si>
-  <si>
-    <t>0.137</t>
-  </si>
-  <si>
-    <t>(1.485)</t>
-  </si>
-  <si>
-    <t>0.411</t>
-  </si>
-  <si>
-    <t>(0.822)</t>
-  </si>
-  <si>
-    <t>0.252</t>
-  </si>
-  <si>
-    <t>(-1.146)</t>
-  </si>
-  <si>
-    <t>0.558</t>
-  </si>
-  <si>
-    <t>(0.587)</t>
-  </si>
-  <si>
-    <t>0.881</t>
-  </si>
-  <si>
-    <t>(0.150)</t>
-  </si>
-  <si>
-    <t>0.887</t>
-  </si>
-  <si>
-    <t>(0.142)</t>
-  </si>
-  <si>
-    <t>0.361</t>
-  </si>
-  <si>
-    <t>(0.914)</t>
-  </si>
-  <si>
-    <t>(3.477)</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>std</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>25%</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>IsStarAnalyst</t>
-  </si>
-  <si>
-    <t>LOSS</t>
-  </si>
-  <si>
-    <t>37304.000</t>
-  </si>
-  <si>
-    <t>0.021</t>
-  </si>
-  <si>
-    <t>0.005</t>
-  </si>
-  <si>
-    <t>-0.258</t>
-  </si>
-  <si>
-    <t>0.058</t>
-  </si>
-  <si>
-    <t>-0.744</t>
-  </si>
-  <si>
-    <t>0.406</t>
-  </si>
-  <si>
-    <t>0.180</t>
-  </si>
-  <si>
-    <t>9.868</t>
-  </si>
-  <si>
-    <t>20.244</t>
-  </si>
-  <si>
-    <t>48.957</t>
-  </si>
-  <si>
-    <t>0.138</t>
-  </si>
-  <si>
-    <t>0.607</t>
-  </si>
-  <si>
-    <t>0.034</t>
-  </si>
-  <si>
-    <t>3.422</t>
-  </si>
-  <si>
-    <t>0.575</t>
-  </si>
-  <si>
-    <t>3.299</t>
-  </si>
-  <si>
-    <t>7.226</t>
-  </si>
-  <si>
-    <t>29.488</t>
-  </si>
-  <si>
-    <t>103.444</t>
-  </si>
-  <si>
-    <t>0.384</t>
-  </si>
-  <si>
-    <t>8.211</t>
-  </si>
-  <si>
-    <t>21.710</t>
-  </si>
-  <si>
-    <t>59.443</t>
-  </si>
-  <si>
-    <t>0.327</t>
-  </si>
-  <si>
-    <t>0.488</t>
-  </si>
-  <si>
-    <t>-0.210</t>
-  </si>
-  <si>
-    <t>-240.000</t>
-  </si>
-  <si>
-    <t>-4.000</t>
-  </si>
-  <si>
-    <t>-238.000</t>
-  </si>
-  <si>
-    <t>-23.010</t>
-  </si>
-  <si>
-    <t>-195.000</t>
-  </si>
-  <si>
-    <t>-667.500</t>
-  </si>
-  <si>
-    <t>0.000</t>
-  </si>
-  <si>
-    <t>1.000</t>
-  </si>
-  <si>
-    <t>-9.062</t>
-  </si>
-  <si>
-    <t>0.003</t>
-  </si>
-  <si>
-    <t>-0.360</t>
-  </si>
-  <si>
-    <t>-0.260</t>
-  </si>
-  <si>
-    <t>-4.740</t>
-  </si>
-  <si>
-    <t>-12.000</t>
-  </si>
-  <si>
-    <t>-43.500</t>
-  </si>
-  <si>
-    <t>3.960</t>
-  </si>
-  <si>
-    <t>9.000</t>
-  </si>
-  <si>
-    <t>17.000</t>
-  </si>
-  <si>
-    <t>0.051</t>
-  </si>
-  <si>
-    <t>0.015</t>
-  </si>
-  <si>
-    <t>0.050</t>
-  </si>
-  <si>
-    <t>-1.160</t>
-  </si>
-  <si>
-    <t>-3.330</t>
-  </si>
-  <si>
-    <t>-11.165</t>
-  </si>
-  <si>
-    <t>7.170</t>
-  </si>
-  <si>
-    <t>15.000</t>
-  </si>
-  <si>
-    <t>33.000</t>
-  </si>
-  <si>
-    <t>0.123</t>
-  </si>
-  <si>
-    <t>0.360</t>
-  </si>
-  <si>
-    <t>0.390</t>
-  </si>
-  <si>
-    <t>3.200</t>
-  </si>
-  <si>
-    <t>5.440</t>
-  </si>
-  <si>
-    <t>21.000</t>
-  </si>
-  <si>
-    <t>13.460</t>
-  </si>
-  <si>
-    <t>24.000</t>
-  </si>
-  <si>
-    <t>59.000</t>
-  </si>
-  <si>
-    <t>0.221</t>
-  </si>
-  <si>
-    <t>0.977</t>
-  </si>
-  <si>
-    <t>168.280</t>
-  </si>
-  <si>
-    <t>2.000</t>
-  </si>
-  <si>
-    <t>39.400</t>
-  </si>
-  <si>
-    <t>364.080</t>
-  </si>
-  <si>
-    <t>1336.960</t>
-  </si>
-  <si>
-    <t>54.020</t>
-  </si>
-  <si>
-    <t>225.000</t>
-  </si>
-  <si>
-    <t>593.000</t>
-  </si>
-  <si>
-    <t>1.175</t>
-  </si>
-  <si>
-    <t>1.000***</t>
-  </si>
-  <si>
-    <t>0.138***</t>
-  </si>
-  <si>
-    <t>0.063***</t>
-  </si>
-  <si>
-    <t>-0.078***</t>
-  </si>
-  <si>
-    <t>-0.011**</t>
-  </si>
-  <si>
-    <t>0.011**</t>
-  </si>
-  <si>
-    <t>0.015***</t>
-  </si>
-  <si>
-    <t>0.006</t>
-  </si>
-  <si>
-    <t>0.054***</t>
-  </si>
-  <si>
-    <t>0.068***</t>
-  </si>
-  <si>
-    <t>-0.077***</t>
-  </si>
-  <si>
-    <t>-0.024***</t>
-  </si>
-  <si>
-    <t>0.044***</t>
-  </si>
-  <si>
-    <t>-0.191***</t>
-  </si>
-  <si>
-    <t>-0.004</t>
-  </si>
-  <si>
-    <t>-0.001</t>
-  </si>
-  <si>
-    <t>0.001</t>
-  </si>
-  <si>
-    <t>-0.006</t>
-  </si>
-  <si>
-    <t>-0.002</t>
-  </si>
-  <si>
-    <t>-0.009*</t>
-  </si>
-  <si>
-    <t>-0.007</t>
-  </si>
-  <si>
-    <t>-0.016***</t>
-  </si>
-  <si>
-    <t>-0.010*</t>
-  </si>
-  <si>
-    <t>-0.034***</t>
-  </si>
-  <si>
-    <t>-0.014***</t>
-  </si>
-  <si>
-    <t>0.008</t>
-  </si>
-  <si>
-    <t>-0.018***</t>
-  </si>
-  <si>
-    <t>-0.031***</t>
-  </si>
-  <si>
-    <t>-0.022***</t>
-  </si>
-  <si>
-    <t>0.031***</t>
-  </si>
-  <si>
-    <t>0.013**</t>
-  </si>
-  <si>
-    <t>0.010*</t>
-  </si>
-  <si>
-    <t>0.014***</t>
-  </si>
-  <si>
-    <t>0.012**</t>
-  </si>
-  <si>
-    <t>0.417***</t>
-  </si>
-  <si>
-    <t>0.497***</t>
-  </si>
-  <si>
-    <t>0.251***</t>
-  </si>
-  <si>
-    <t>0.883***</t>
-  </si>
-  <si>
-    <t>0.124***</t>
-  </si>
-  <si>
-    <t>0.104***</t>
-  </si>
-  <si>
-    <t>0.007</t>
-  </si>
-  <si>
-    <t>0.004</t>
-  </si>
-  <si>
-    <t>0.886***</t>
-  </si>
-  <si>
-    <t>0.184***</t>
-  </si>
-  <si>
-    <t>0.365***</t>
-  </si>
-  <si>
-    <t>0.638***</t>
-  </si>
-  <si>
-    <t>0.576***</t>
-  </si>
-  <si>
-    <t>-0.003</t>
-  </si>
-  <si>
-    <t>-0.017***</t>
-  </si>
-  <si>
-    <t>0.248***</t>
-  </si>
-  <si>
-    <t>0.443***</t>
-  </si>
-  <si>
-    <t>0.535***</t>
-  </si>
-  <si>
-    <t>0.562***</t>
-  </si>
-  <si>
-    <t>-0.019***</t>
-  </si>
-  <si>
-    <t>0.279***</t>
-  </si>
-  <si>
-    <t>0.199***</t>
-  </si>
-  <si>
-    <t>0.256***</t>
-  </si>
-  <si>
-    <t>0.025***</t>
-  </si>
-  <si>
-    <t>0.183***</t>
-  </si>
-  <si>
-    <t>0.160***</t>
-  </si>
-  <si>
-    <t>-0.008</t>
-  </si>
-  <si>
-    <t>-0.027***</t>
-  </si>
-  <si>
-    <t>0.897***</t>
-  </si>
-  <si>
-    <t>-0.026***</t>
-  </si>
-  <si>
-    <t>-0.039***</t>
-  </si>
-  <si>
-    <t>-0.033***</t>
-  </si>
-  <si>
-    <t>-0.108***</t>
-  </si>
-  <si>
-    <t>C(Big4)[T.1.0]</t>
-  </si>
-  <si>
-    <t>C(SecLoct)[T.1.0]</t>
-  </si>
-  <si>
-    <t>ReportAttention</t>
-  </si>
-  <si>
-    <t>AnaAttention</t>
-  </si>
-  <si>
-    <t>TotalFinancialProportion</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>EPS</t>
-  </si>
-  <si>
-    <t>CompanyOpacity</t>
-  </si>
-  <si>
-    <t>np.log(CompanySize)</t>
-  </si>
-  <si>
-    <t>(-32.278)</t>
-  </si>
-  <si>
-    <t>(5.868)</t>
-  </si>
-  <si>
-    <t>(-12.470)</t>
-  </si>
-  <si>
-    <t>(-4.785)</t>
-  </si>
-  <si>
-    <t>(-10.963)</t>
-  </si>
-  <si>
-    <t>0.006***</t>
-  </si>
-  <si>
-    <t>(2.755)</t>
-  </si>
-  <si>
-    <t>(-8.259)</t>
-  </si>
-  <si>
-    <t>(-12.289)</t>
-  </si>
-  <si>
-    <t>(-16.734)</t>
-  </si>
-  <si>
-    <t>(7.216)</t>
-  </si>
-  <si>
-    <t>(16.252)</t>
-  </si>
-  <si>
-    <t>(39.589)</t>
-  </si>
-  <si>
-    <t>(1.547)</t>
-  </si>
-  <si>
-    <t>0.117</t>
-  </si>
-  <si>
-    <t>(-1.566)</t>
-  </si>
-  <si>
-    <t>0.153</t>
-  </si>
-  <si>
-    <t>(-1.430)</t>
-  </si>
-  <si>
-    <t>(2.774)</t>
-  </si>
-  <si>
-    <t>0.032**</t>
-  </si>
-  <si>
-    <t>(2.144)</t>
-  </si>
-  <si>
-    <t>(-4.383)</t>
-  </si>
-  <si>
-    <t>0.115</t>
-  </si>
-  <si>
-    <t>(-1.574)</t>
-  </si>
-  <si>
-    <t>0.172</t>
-  </si>
-  <si>
-    <t>(1.367)</t>
-  </si>
-  <si>
-    <t>0.520</t>
-  </si>
-  <si>
-    <t>(0.643)</t>
-  </si>
-  <si>
-    <t>0.206</t>
-  </si>
-  <si>
-    <t>(1.265)</t>
-  </si>
-  <si>
-    <t>0.586</t>
-  </si>
-  <si>
-    <t>(-0.545)</t>
-  </si>
-  <si>
-    <t>0.605</t>
-  </si>
-  <si>
-    <t>(-0.517)</t>
-  </si>
-  <si>
-    <t>(3.694)</t>
-  </si>
-  <si>
-    <t>0.062*</t>
-  </si>
-  <si>
-    <t>(1.866)</t>
-  </si>
-  <si>
-    <t>(3.464)</t>
-  </si>
-  <si>
-    <t>(1.483)</t>
-  </si>
-  <si>
-    <t>(-12.865)</t>
-  </si>
-  <si>
-    <t>(8.285)</t>
-  </si>
-  <si>
-    <t>(3.273)</t>
-  </si>
-  <si>
-    <t>(-3.483)</t>
-  </si>
-  <si>
-    <t>(1.365)</t>
-  </si>
-  <si>
-    <t>0.790</t>
-  </si>
-  <si>
-    <t>(0.266)</t>
-  </si>
-  <si>
-    <t>0.553</t>
-  </si>
-  <si>
-    <t>(0.593)</t>
-  </si>
-  <si>
-    <t>(-3.889)</t>
-  </si>
-  <si>
-    <t>(-2.140)</t>
-  </si>
-  <si>
-    <t>0.650</t>
-  </si>
-  <si>
-    <t>(0.453)</t>
-  </si>
-  <si>
-    <t>0.662</t>
-  </si>
-  <si>
-    <t>(0.437)</t>
-  </si>
-  <si>
-    <t>0.070*</t>
-  </si>
-  <si>
-    <t>(-1.809)</t>
-  </si>
-  <si>
-    <t>0.560</t>
-  </si>
-  <si>
-    <t>(-0.583)</t>
-  </si>
-  <si>
-    <t>(6.171)</t>
-  </si>
-  <si>
-    <t>0.349</t>
-  </si>
-  <si>
-    <t>(0.937)</t>
-  </si>
-  <si>
-    <t>(-1.860)</t>
-  </si>
-  <si>
-    <t>0.354</t>
-  </si>
-  <si>
-    <t>(-0.926)</t>
-  </si>
-  <si>
-    <t>0.269</t>
-  </si>
-  <si>
-    <t>(1.106)</t>
-  </si>
-  <si>
-    <t>0.532</t>
-  </si>
-  <si>
-    <t>(0.625)</t>
-  </si>
-  <si>
-    <t>0.830</t>
-  </si>
-  <si>
-    <t>(0.214)</t>
-  </si>
-  <si>
-    <t>SecLoct</t>
-  </si>
-  <si>
-    <t>Big4</t>
-  </si>
-  <si>
-    <t>CompanySize</t>
-  </si>
-  <si>
-    <t>27455.000</t>
-  </si>
-  <si>
-    <t>0.098</t>
-  </si>
-  <si>
-    <t>-0.232</t>
-  </si>
-  <si>
-    <t>1.681</t>
-  </si>
-  <si>
-    <t>53.699</t>
-  </si>
-  <si>
-    <t>22.316</t>
-  </si>
-  <si>
-    <t>7.859</t>
-  </si>
-  <si>
-    <t>0.076</t>
-  </si>
-  <si>
-    <t>0.499</t>
-  </si>
-  <si>
-    <t>0.184</t>
-  </si>
-  <si>
-    <t>0.501</t>
-  </si>
-  <si>
-    <t>35316444837.028</t>
-  </si>
-  <si>
-    <t>0.126</t>
-  </si>
-  <si>
-    <t>0.364</t>
-  </si>
-  <si>
-    <t>3.548</t>
-  </si>
-  <si>
-    <t>0.571</t>
-  </si>
-  <si>
-    <t>3.431</t>
-  </si>
-  <si>
-    <t>0.611</t>
-  </si>
-  <si>
-    <t>39.898</t>
-  </si>
-  <si>
-    <t>12.790</t>
-  </si>
-  <si>
-    <t>5.229</t>
-  </si>
-  <si>
-    <t>0.266</t>
-  </si>
-  <si>
-    <t>0.500</t>
-  </si>
-  <si>
-    <t>0.388</t>
-  </si>
-  <si>
-    <t>9.051</t>
-  </si>
-  <si>
-    <t>75565209833.229</t>
-  </si>
-  <si>
-    <t>0.309</t>
-  </si>
-  <si>
-    <t>0.595</t>
-  </si>
-  <si>
-    <t>-0.918</t>
-  </si>
-  <si>
-    <t>114080998.280</t>
-  </si>
-  <si>
-    <t>-2.220</t>
-  </si>
-  <si>
-    <t>-0.370</t>
-  </si>
-  <si>
-    <t>-0.250</t>
-  </si>
-  <si>
-    <t>12.000</t>
-  </si>
-  <si>
-    <t>4.070</t>
-  </si>
-  <si>
-    <t>0.020</t>
-  </si>
-  <si>
-    <t>4491860820.790</t>
-  </si>
-  <si>
-    <t>0.044</t>
-  </si>
-  <si>
-    <t>0.014</t>
-  </si>
-  <si>
-    <t>-0.010</t>
-  </si>
-  <si>
-    <t>0.060</t>
-  </si>
-  <si>
-    <t>44.000</t>
-  </si>
-  <si>
-    <t>6.784</t>
-  </si>
-  <si>
-    <t>0.147</t>
-  </si>
-  <si>
-    <t>9695002971.160</t>
-  </si>
-  <si>
-    <t>0.107</t>
-  </si>
-  <si>
-    <t>0.033</t>
-  </si>
-  <si>
-    <t>0.350</t>
-  </si>
-  <si>
-    <t>0.410</t>
-  </si>
-  <si>
-    <t>72.000</t>
-  </si>
-  <si>
-    <t>31.000</t>
-  </si>
-  <si>
-    <t>10.770</t>
-  </si>
-  <si>
-    <t>0.292</t>
-  </si>
-  <si>
-    <t>32710619895.000</t>
-  </si>
-  <si>
-    <t>0.203</t>
-  </si>
-  <si>
-    <t>0.620</t>
-  </si>
-  <si>
-    <t>4.000</t>
-  </si>
-  <si>
-    <t>219.000</t>
-  </si>
-  <si>
-    <t>65.000</t>
-  </si>
-  <si>
-    <t>43.287</t>
-  </si>
-  <si>
-    <t>363.068</t>
-  </si>
-  <si>
-    <t>611295567689.290</t>
-  </si>
-  <si>
-    <t>4.530</t>
-  </si>
-  <si>
-    <t>0.139***</t>
-  </si>
-  <si>
-    <t>0.060***</t>
-  </si>
-  <si>
-    <t>0.084***</t>
-  </si>
-  <si>
-    <t>-0.073***</t>
-  </si>
-  <si>
-    <t>-0.083***</t>
-  </si>
-  <si>
-    <t>-0.122***</t>
-  </si>
-  <si>
-    <t>0.016***</t>
-  </si>
-  <si>
-    <t>-0.037***</t>
-  </si>
-  <si>
-    <t>-0.020***</t>
-  </si>
-  <si>
-    <t>-0.065***</t>
-  </si>
-  <si>
-    <t>-0.042***</t>
-  </si>
-  <si>
-    <t>0.040***</t>
-  </si>
-  <si>
-    <t>-0.049***</t>
-  </si>
-  <si>
-    <t>-0.015**</t>
-  </si>
-  <si>
-    <t>0.009</t>
-  </si>
-  <si>
-    <t>-0.012**</t>
-  </si>
-  <si>
-    <t>-0.009</t>
-  </si>
-  <si>
-    <t>-0.013**</t>
-  </si>
-  <si>
-    <t>0.036***</t>
-  </si>
-  <si>
-    <t>-0.091***</t>
-  </si>
-  <si>
-    <t>-0.056***</t>
-  </si>
-  <si>
-    <t>0.029***</t>
-  </si>
-  <si>
-    <t>0.038***</t>
-  </si>
-  <si>
-    <t>-0.035***</t>
-  </si>
-  <si>
-    <t>0.023***</t>
-  </si>
-  <si>
-    <t>0.043***</t>
-  </si>
-  <si>
-    <t>0.052***</t>
-  </si>
-  <si>
-    <t>0.019***</t>
-  </si>
-  <si>
-    <t>0.014**</t>
-  </si>
-  <si>
-    <t>0.018***</t>
-  </si>
-  <si>
-    <t>-0.298***</t>
-  </si>
-  <si>
-    <t>-0.280***</t>
-  </si>
-  <si>
-    <t>-0.058***</t>
-  </si>
-  <si>
-    <t>0.117***</t>
-  </si>
-  <si>
-    <t>-0.225***</t>
-  </si>
-  <si>
-    <t>-0.238***</t>
-  </si>
-  <si>
-    <t>-0.099***</t>
-  </si>
-  <si>
-    <t>-0.028***</t>
-  </si>
-  <si>
-    <t>0.880***</t>
-  </si>
-  <si>
-    <t>-0.109***</t>
-  </si>
-  <si>
-    <t>0.396***</t>
-  </si>
-  <si>
-    <t>0.602***</t>
-  </si>
-  <si>
-    <t>0.112***</t>
-  </si>
-  <si>
-    <t>0.095***</t>
-  </si>
-  <si>
-    <t>0.049***</t>
-  </si>
-  <si>
-    <t>0.076***</t>
-  </si>
-  <si>
-    <t>0.307***</t>
-  </si>
-  <si>
-    <t>0.338***</t>
-  </si>
-  <si>
-    <t>0.153***</t>
-  </si>
-  <si>
-    <t>0.268***</t>
-  </si>
-  <si>
-    <t>-0.014**</t>
-  </si>
-  <si>
-    <t>0.101***</t>
-  </si>
-  <si>
-    <t>-0.151***</t>
-  </si>
-  <si>
-    <t>0.072***</t>
-  </si>
-  <si>
-    <t>0.092***</t>
-  </si>
-  <si>
-    <t>0.067***</t>
-  </si>
-  <si>
-    <t>-0.021***</t>
-  </si>
-  <si>
-    <t>-0.223***</t>
-  </si>
-  <si>
-    <t>0.162***</t>
-  </si>
-  <si>
-    <t>0.635***</t>
-  </si>
-  <si>
-    <t>0.394***</t>
-  </si>
-  <si>
-    <t>0.041***</t>
-  </si>
-  <si>
-    <t>0.026***</t>
-  </si>
-  <si>
-    <t>-0.036***</t>
-  </si>
-  <si>
-    <t>-0.139***</t>
-  </si>
-  <si>
-    <t>0.261***</t>
-  </si>
-  <si>
-    <t>C(SecSize)[T.1.0]</t>
-  </si>
-  <si>
-    <t>C(underwriter)[T.1.0]</t>
-  </si>
-  <si>
-    <t>StarAnalyst</t>
-  </si>
-  <si>
-    <t>ActiveAnalyst</t>
-  </si>
-  <si>
-    <t>ReportNumber</t>
-  </si>
-  <si>
-    <t>(-25.778)</t>
-  </si>
-  <si>
-    <t>(5.135)</t>
-  </si>
-  <si>
-    <t>(-5.636)</t>
-  </si>
-  <si>
-    <t>(-3.779)</t>
-  </si>
-  <si>
-    <t>(10.183)</t>
-  </si>
-  <si>
-    <t>0.038**</t>
-  </si>
-  <si>
-    <t>(2.071)</t>
-  </si>
-  <si>
-    <t>(-17.207)</t>
-  </si>
-  <si>
-    <t>(33.775)</t>
-  </si>
-  <si>
-    <t>(-22.331)</t>
-  </si>
-  <si>
-    <t>0.913</t>
-  </si>
-  <si>
-    <t>(-0.110)</t>
-  </si>
-  <si>
-    <t>(2.711)</t>
-  </si>
-  <si>
-    <t>(3.418)</t>
-  </si>
-  <si>
-    <t>0.337</t>
-  </si>
-  <si>
-    <t>(-0.961)</t>
-  </si>
-  <si>
-    <t>0.425</t>
-  </si>
-  <si>
-    <t>(0.798)</t>
-  </si>
-  <si>
-    <t>0.159</t>
-  </si>
-  <si>
-    <t>(1.408)</t>
-  </si>
-  <si>
-    <t>0.965</t>
-  </si>
-  <si>
-    <t>(0.043)</t>
-  </si>
-  <si>
-    <t>0.002***</t>
-  </si>
-  <si>
-    <t>(-3.114)</t>
-  </si>
-  <si>
-    <t>(-2.398)</t>
-  </si>
-  <si>
-    <t>(-2.667)</t>
-  </si>
-  <si>
-    <t>0.972</t>
-  </si>
-  <si>
-    <t>(0.035)</t>
-  </si>
-  <si>
-    <t>(6.918)</t>
-  </si>
-  <si>
-    <t>(15.613)</t>
-  </si>
-  <si>
-    <t>0.743</t>
-  </si>
-  <si>
-    <t>(-0.328)</t>
-  </si>
-  <si>
-    <t>(3.715)</t>
-  </si>
-  <si>
-    <t>(8.737)</t>
-  </si>
-  <si>
-    <t>(-8.315)</t>
-  </si>
-  <si>
-    <t>(-10.230)</t>
-  </si>
-  <si>
-    <t>(-6.905)</t>
-  </si>
-  <si>
-    <t>0.143</t>
-  </si>
-  <si>
-    <t>(-1.465)</t>
-  </si>
-  <si>
-    <t>(5.771)</t>
-  </si>
-  <si>
-    <t>(-3.534)</t>
-  </si>
-  <si>
-    <t>0.746</t>
-  </si>
-  <si>
-    <t>(0.324)</t>
-  </si>
-  <si>
-    <t>0.902</t>
-  </si>
-  <si>
-    <t>(0.123)</t>
-  </si>
-  <si>
-    <t>0.400</t>
-  </si>
-  <si>
-    <t>(-0.842)</t>
-  </si>
-  <si>
-    <t>0.761</t>
-  </si>
-  <si>
-    <t>(-0.305)</t>
-  </si>
-  <si>
-    <t>(0.029)</t>
-  </si>
-  <si>
-    <t>0.418</t>
-  </si>
-  <si>
-    <t>(0.810)</t>
-  </si>
-  <si>
-    <t>(2.739)</t>
-  </si>
-  <si>
-    <t>0.052*</t>
-  </si>
-  <si>
-    <t>(1.940)</t>
-  </si>
-  <si>
-    <t>0.393</t>
-  </si>
-  <si>
-    <t>(0.854)</t>
-  </si>
-  <si>
-    <t>SecSize</t>
-  </si>
-  <si>
-    <t>underwriter</t>
-  </si>
-  <si>
-    <t>17702.000</t>
-  </si>
-  <si>
-    <t>0.018</t>
-  </si>
-  <si>
-    <t>0.141</t>
-  </si>
-  <si>
-    <t>0.011</t>
-  </si>
-  <si>
-    <t>-0.294</t>
-  </si>
-  <si>
-    <t>0.691</t>
-  </si>
-  <si>
-    <t>14.472</t>
-  </si>
-  <si>
-    <t>46.330</t>
-  </si>
-  <si>
-    <t>0.083</t>
-  </si>
-  <si>
-    <t>1076.269</t>
-  </si>
-  <si>
-    <t>32026634450.889</t>
-  </si>
-  <si>
-    <t>0.125</t>
-  </si>
-  <si>
-    <t>3.821</t>
-  </si>
-  <si>
-    <t>0.563</t>
-  </si>
-  <si>
-    <t>3.700</t>
-  </si>
-  <si>
-    <t>0.462</t>
-  </si>
-  <si>
-    <t>17.695</t>
-  </si>
-  <si>
-    <t>21.482</t>
-  </si>
-  <si>
-    <t>0.276</t>
-  </si>
-  <si>
-    <t>720.519</t>
-  </si>
-  <si>
-    <t>0.426</t>
-  </si>
-  <si>
-    <t>75345385569.722</t>
-  </si>
-  <si>
-    <t>0.622</t>
-  </si>
-  <si>
-    <t>-0.159</t>
-  </si>
-  <si>
-    <t>-0.380</t>
-  </si>
-  <si>
-    <t>-0.280</t>
-  </si>
-  <si>
-    <t>32.000</t>
-  </si>
-  <si>
-    <t>552.000</t>
-  </si>
-  <si>
-    <t>4454437637.450</t>
-  </si>
-  <si>
-    <t>7.000</t>
-  </si>
-  <si>
-    <t>873.000</t>
-  </si>
-  <si>
-    <t>9009014201.700</t>
-  </si>
-  <si>
-    <t>0.110</t>
-  </si>
-  <si>
-    <t>0.028</t>
-  </si>
-  <si>
-    <t>58.000</t>
-  </si>
-  <si>
-    <t>1496.000</t>
-  </si>
-  <si>
-    <t>24518246733.190</t>
-  </si>
-  <si>
-    <t>0.209</t>
-  </si>
-  <si>
-    <t>0.640</t>
-  </si>
-  <si>
-    <t>64.000</t>
-  </si>
-  <si>
-    <t>121.000</t>
-  </si>
-  <si>
-    <t>3261.000</t>
-  </si>
-  <si>
-    <t>0.771</t>
-  </si>
-  <si>
-    <t>0.174***</t>
-  </si>
-  <si>
-    <t>-0.110***</t>
-  </si>
-  <si>
-    <t>0.032***</t>
-  </si>
-  <si>
-    <t>0.045***</t>
-  </si>
-  <si>
-    <t>-0.011</t>
-  </si>
-  <si>
-    <t>0.109***</t>
-  </si>
-  <si>
-    <t>-0.112***</t>
-  </si>
-  <si>
-    <t>-0.131***</t>
-  </si>
-  <si>
-    <t>0.012</t>
-  </si>
-  <si>
-    <t>-0.043***</t>
-  </si>
-  <si>
-    <t>0.016**</t>
-  </si>
-  <si>
-    <t>-0.062***</t>
-  </si>
-  <si>
-    <t>0.014*</t>
   </si>
   <si>
     <t>0.018**</t>
@@ -2183,13 +2381,13 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2201,13 +2399,13 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2218,16 +2416,16 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2236,16 +2434,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2256,16 +2454,16 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2274,16 +2472,16 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2294,16 +2492,16 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2312,16 +2510,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2332,16 +2530,16 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2350,16 +2548,16 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2370,16 +2568,16 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2388,16 +2586,16 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2408,16 +2606,16 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2426,16 +2624,16 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2446,16 +2644,16 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2464,16 +2662,16 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2484,16 +2682,16 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2502,16 +2700,16 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2522,16 +2720,16 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2540,16 +2738,16 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2579,28 +2777,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2608,28 +2806,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="H2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="I2" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2637,28 +2835,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="G3" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="I3" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2666,28 +2864,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="F4" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="G4" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="H4" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="I4" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2695,28 +2893,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="G5" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="H5" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="I5" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2724,28 +2922,28 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="G6" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="H6" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="I6" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2753,28 +2951,28 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="G7" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="H7" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="I7" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2782,57 +2980,57 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="G8" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="I8" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="F9" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="G9" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="H9" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="I9" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2840,28 +3038,28 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="F10" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="G10" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H10" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="I10" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2869,28 +3067,28 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F11" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="G11" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="H11" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="I11" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2898,28 +3096,28 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E12" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="G12" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="H12" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="I12" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2927,57 +3125,57 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="G13" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="H13" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="I13" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="H14" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3016,7 +3214,7 @@
         <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>13</v>
@@ -3031,7 +3229,7 @@
         <v>14</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -3039,43 +3237,43 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="F2" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="H2" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="I2" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="J2" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="K2" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="L2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="M2" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="N2" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3083,43 +3281,43 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="F3" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="H3" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="J3" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="K3" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="L3" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="M3" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="N3" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3127,43 +3325,43 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F4" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="G4" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="H4" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="I4" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="J4" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="K4" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="L4" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="M4" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="N4" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3171,43 +3369,43 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="D5" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="F5" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="G5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H5" t="s">
+        <v>215</v>
+      </c>
+      <c r="I5" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" t="s">
+        <v>216</v>
+      </c>
+      <c r="K5" t="s">
+        <v>214</v>
+      </c>
+      <c r="L5" t="s">
+        <v>213</v>
+      </c>
+      <c r="M5" t="s">
+        <v>190</v>
+      </c>
+      <c r="N5" t="s">
         <v>198</v>
-      </c>
-      <c r="H5" t="s">
-        <v>199</v>
-      </c>
-      <c r="I5" t="s">
-        <v>197</v>
-      </c>
-      <c r="J5" t="s">
-        <v>200</v>
-      </c>
-      <c r="K5" t="s">
-        <v>198</v>
-      </c>
-      <c r="L5" t="s">
-        <v>197</v>
-      </c>
-      <c r="M5" t="s">
-        <v>174</v>
-      </c>
-      <c r="N5" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3215,43 +3413,43 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="D6" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E6" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="F6" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="G6" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="H6" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="I6" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="J6" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="K6" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="L6" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="M6" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="N6" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -3259,43 +3457,43 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="D7" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="E7" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="F7" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="G7" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="H7" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="I7" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="J7" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="K7" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="L7" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="M7" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="N7" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -3303,87 +3501,87 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="C8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H8" t="s">
         <v>183</v>
       </c>
-      <c r="D8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E8" t="s">
-        <v>199</v>
-      </c>
-      <c r="F8" t="s">
-        <v>202</v>
-      </c>
-      <c r="G8" t="s">
-        <v>209</v>
-      </c>
-      <c r="H8" t="s">
-        <v>167</v>
-      </c>
       <c r="I8" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="J8" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="K8" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="L8" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="M8" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="N8" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="F9" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="G9" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="H9" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="I9" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="J9" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="K9" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="L9" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="M9" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="N9" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -3391,43 +3589,43 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="C10" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="D10" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="E10" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="F10" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="G10" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="H10" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="I10" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="J10" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="K10" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="L10" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="M10" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="N10" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -3435,43 +3633,43 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="F11" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="G11" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="H11" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="I11" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="J11" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="K11" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="L11" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="M11" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="N11" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -3479,43 +3677,43 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="C12" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="D12" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="E12" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="F12" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="G12" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="H12" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="I12" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="J12" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="K12" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="L12" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="M12" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="N12" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -3523,87 +3721,87 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C13" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="D13" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="E13" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="F13" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="G13" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="H13" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="I13" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="J13" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="K13" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="L13" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="M13" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="N13" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="C14" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="D14" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="E14" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="F14" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="G14" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="H14" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="I14" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="J14" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="K14" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="L14" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="M14" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="N14" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3647,16 +3845,16 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>259</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>283</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>306</v>
       </c>
       <c r="F2" t="s">
-        <v>262</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3665,16 +3863,16 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="D3" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="E3" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="F3" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3685,16 +3883,16 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>261</v>
       </c>
       <c r="D4" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="E4" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="F4" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3703,36 +3901,36 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="D5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="E5" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="F5" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>263</v>
       </c>
       <c r="D6" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>310</v>
       </c>
       <c r="F6" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3741,36 +3939,36 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="D7" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="E7" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="F7" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>265</v>
       </c>
       <c r="D8" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>312</v>
       </c>
       <c r="F8" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3779,36 +3977,36 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="D9" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="E9" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="F9" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>267</v>
       </c>
       <c r="D10" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>314</v>
       </c>
       <c r="F10" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3817,36 +4015,36 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="D11" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="E11" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="F11" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>293</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>316</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3855,36 +4053,36 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="D13" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="E13" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="F13" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>271</v>
       </c>
       <c r="D14" t="s">
-        <v>265</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>318</v>
       </c>
       <c r="F14" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3893,36 +4091,36 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="D15" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="E15" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="F15" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>273</v>
       </c>
       <c r="D16" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>320</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3931,16 +4129,16 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="D17" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="E17" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="F17" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3951,16 +4149,16 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>275</v>
       </c>
       <c r="D18" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="E18" t="s">
-        <v>267</v>
+        <v>322</v>
       </c>
       <c r="F18" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3969,36 +4167,36 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="D19" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="E19" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="F19" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>277</v>
       </c>
       <c r="D20" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="E20" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="F20" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4007,36 +4205,36 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="D21" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="E21" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="F21" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>279</v>
       </c>
       <c r="D22" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="E22" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="F22" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4045,36 +4243,36 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="D23" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="E23" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="F23" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>281</v>
       </c>
       <c r="D24" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>328</v>
       </c>
       <c r="F24" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4083,16 +4281,16 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="D25" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="E25" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="F25" t="s">
-        <v>312</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -4124,28 +4322,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4153,28 +4351,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="G2" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="H2" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="I2" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4182,28 +4380,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="C3" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="D3" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="G3" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="H3" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="I3" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4211,28 +4409,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D4" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="F4" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="G4" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="H4" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="I4" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4240,289 +4438,289 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="C5" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="D5" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="F5" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="G5" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="H5" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="I5" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="B6" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="C6" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="D6" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="G6" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="H6" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="I6" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="B7" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="C7" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="D7" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="E7" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="F7" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="G7" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="H7" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="I7" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="B8" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="C8" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="D8" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="F8" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="G8" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="H8" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="I8" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="B9" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="C9" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="D9" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="F9" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="G9" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="H9" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="I9" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="B10" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="C10" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="D10" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="G10" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="H10" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="I10" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="C11" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="D11" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="G11" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="H11" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="B12" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="C12" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="D12" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="G12" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="H12" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="B13" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="C13" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="D13" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="E13" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="F13" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="G13" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="H13" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="I13" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="B14" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="C14" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="D14" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="E14" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="F14" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="G14" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="H14" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="I14" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4530,57 +4728,57 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="C15" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="D15" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="F15" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="G15" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="H15" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="I15" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="B16" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="C16" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="D16" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="E16" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="G16" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="H16" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="I16" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -4610,37 +4808,37 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -4648,49 +4846,49 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="D2" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="F2" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="G2" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="H2" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="I2" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="J2" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="K2" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="L2" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="M2" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="N2" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="O2" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="P2" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -4698,49 +4896,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="D3" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="E3" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="F3" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="G3" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="H3" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="I3" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="J3" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="K3" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="L3" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="M3" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="N3" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="O3" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="P3" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -4748,49 +4946,49 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="C4" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="E4" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
       <c r="F4" t="s">
-        <v>397</v>
+        <v>438</v>
       </c>
       <c r="G4" t="s">
-        <v>398</v>
+        <v>439</v>
       </c>
       <c r="H4" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
       <c r="I4" t="s">
-        <v>400</v>
+        <v>441</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="K4" t="s">
-        <v>401</v>
+        <v>442</v>
       </c>
       <c r="L4" t="s">
-        <v>402</v>
+        <v>443</v>
       </c>
       <c r="M4" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="N4" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="O4" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="P4" t="s">
-        <v>403</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -4798,499 +4996,499 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="C5" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="D5" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="F5" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="G5" t="s">
-        <v>404</v>
+        <v>445</v>
       </c>
       <c r="H5" t="s">
-        <v>405</v>
+        <v>446</v>
       </c>
       <c r="I5" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="J5" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="K5" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="L5" t="s">
-        <v>406</v>
+        <v>447</v>
       </c>
       <c r="M5" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="N5" t="s">
-        <v>407</v>
+        <v>448</v>
       </c>
       <c r="O5" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="P5" t="s">
-        <v>408</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="B6" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="D6" t="s">
-        <v>397</v>
+        <v>438</v>
       </c>
       <c r="E6" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="F6" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="G6" t="s">
-        <v>409</v>
+        <v>450</v>
       </c>
       <c r="H6" t="s">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="I6" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="J6" t="s">
-        <v>411</v>
+        <v>452</v>
       </c>
       <c r="K6" t="s">
-        <v>412</v>
+        <v>453</v>
       </c>
       <c r="L6" t="s">
-        <v>413</v>
+        <v>454</v>
       </c>
       <c r="M6" t="s">
-        <v>403</v>
+        <v>444</v>
       </c>
       <c r="N6" t="s">
-        <v>414</v>
+        <v>455</v>
       </c>
       <c r="O6" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="P6" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="B7" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="C7" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="D7" t="s">
-        <v>398</v>
+        <v>439</v>
       </c>
       <c r="E7" t="s">
-        <v>404</v>
+        <v>445</v>
       </c>
       <c r="F7" t="s">
-        <v>409</v>
+        <v>450</v>
       </c>
       <c r="G7" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="H7" t="s">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="I7" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="J7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="K7" t="s">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="L7" t="s">
-        <v>419</v>
+        <v>460</v>
       </c>
       <c r="M7" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="N7" t="s">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="O7" t="s">
-        <v>421</v>
+        <v>462</v>
       </c>
       <c r="P7" t="s">
-        <v>422</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="B8" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="C8" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="D8" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
       <c r="E8" t="s">
-        <v>405</v>
+        <v>446</v>
       </c>
       <c r="F8" t="s">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="G8" t="s">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="H8" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="I8" t="s">
-        <v>423</v>
+        <v>464</v>
       </c>
       <c r="J8" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="K8" t="s">
-        <v>424</v>
+        <v>465</v>
       </c>
       <c r="L8" t="s">
-        <v>425</v>
+        <v>466</v>
       </c>
       <c r="M8" t="s">
-        <v>402</v>
+        <v>443</v>
       </c>
       <c r="N8" t="s">
-        <v>426</v>
+        <v>467</v>
       </c>
       <c r="O8" t="s">
-        <v>427</v>
+        <v>468</v>
       </c>
       <c r="P8" t="s">
-        <v>428</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="B9" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="D9" t="s">
-        <v>400</v>
+        <v>441</v>
       </c>
       <c r="E9" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" t="s">
         <v>198</v>
       </c>
-      <c r="F9" t="s">
-        <v>182</v>
-      </c>
       <c r="G9" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="H9" t="s">
-        <v>423</v>
+        <v>464</v>
       </c>
       <c r="I9" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="J9" t="s">
-        <v>429</v>
+        <v>470</v>
       </c>
       <c r="K9" t="s">
-        <v>430</v>
+        <v>471</v>
       </c>
       <c r="L9" t="s">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="M9" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="N9" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="O9" t="s">
-        <v>404</v>
+        <v>445</v>
       </c>
       <c r="P9" t="s">
-        <v>432</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="C10" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="F10" t="s">
-        <v>411</v>
+        <v>452</v>
       </c>
       <c r="G10" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="H10" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="I10" t="s">
-        <v>429</v>
+        <v>470</v>
       </c>
       <c r="J10" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="K10" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="L10" t="s">
-        <v>433</v>
+        <v>474</v>
       </c>
       <c r="M10" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="N10" t="s">
-        <v>434</v>
+        <v>475</v>
       </c>
       <c r="O10" t="s">
-        <v>429</v>
+        <v>470</v>
       </c>
       <c r="P10" t="s">
-        <v>435</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="C11" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="D11" t="s">
-        <v>401</v>
+        <v>442</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="F11" t="s">
-        <v>412</v>
+        <v>453</v>
       </c>
       <c r="G11" t="s">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="H11" t="s">
-        <v>424</v>
+        <v>465</v>
       </c>
       <c r="I11" t="s">
-        <v>430</v>
+        <v>471</v>
       </c>
       <c r="J11" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="K11" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="L11" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="M11" t="s">
-        <v>406</v>
+        <v>447</v>
       </c>
       <c r="N11" t="s">
-        <v>436</v>
+        <v>477</v>
       </c>
       <c r="O11" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="P11" t="s">
-        <v>438</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="B12" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="D12" t="s">
-        <v>402</v>
+        <v>443</v>
       </c>
       <c r="E12" t="s">
-        <v>406</v>
+        <v>447</v>
       </c>
       <c r="F12" t="s">
-        <v>413</v>
+        <v>454</v>
       </c>
       <c r="G12" t="s">
-        <v>419</v>
+        <v>460</v>
       </c>
       <c r="H12" t="s">
+        <v>466</v>
+      </c>
+      <c r="I12" t="s">
+        <v>472</v>
+      </c>
+      <c r="J12" t="s">
+        <v>474</v>
+      </c>
+      <c r="K12" t="s">
         <v>425</v>
       </c>
-      <c r="I12" t="s">
-        <v>431</v>
-      </c>
-      <c r="J12" t="s">
-        <v>433</v>
-      </c>
-      <c r="K12" t="s">
-        <v>384</v>
-      </c>
       <c r="L12" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="M12" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="N12" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
       <c r="O12" t="s">
-        <v>440</v>
+        <v>481</v>
       </c>
       <c r="P12" t="s">
-        <v>400</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="B13" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F13" t="s">
+        <v>444</v>
+      </c>
+      <c r="G13" t="s">
+        <v>246</v>
+      </c>
+      <c r="H13" t="s">
+        <v>443</v>
+      </c>
+      <c r="I13" t="s">
+        <v>199</v>
+      </c>
+      <c r="J13" t="s">
+        <v>434</v>
+      </c>
+      <c r="K13" t="s">
+        <v>447</v>
+      </c>
+      <c r="L13" t="s">
+        <v>231</v>
+      </c>
+      <c r="M13" t="s">
         <v>183</v>
       </c>
-      <c r="F13" t="s">
-        <v>403</v>
-      </c>
-      <c r="G13" t="s">
-        <v>230</v>
-      </c>
-      <c r="H13" t="s">
-        <v>402</v>
-      </c>
-      <c r="I13" t="s">
-        <v>183</v>
-      </c>
-      <c r="J13" t="s">
-        <v>393</v>
-      </c>
-      <c r="K13" t="s">
-        <v>406</v>
-      </c>
-      <c r="L13" t="s">
-        <v>215</v>
-      </c>
-      <c r="M13" t="s">
-        <v>167</v>
-      </c>
       <c r="N13" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="O13" t="s">
-        <v>441</v>
+        <v>482</v>
       </c>
       <c r="P13" t="s">
-        <v>407</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="C14" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="E14" t="s">
-        <v>407</v>
+        <v>448</v>
       </c>
       <c r="F14" t="s">
-        <v>414</v>
+        <v>455</v>
       </c>
       <c r="G14" t="s">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="H14" t="s">
-        <v>426</v>
+        <v>467</v>
       </c>
       <c r="I14" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="J14" t="s">
-        <v>434</v>
+        <v>475</v>
       </c>
       <c r="K14" t="s">
-        <v>436</v>
+        <v>477</v>
       </c>
       <c r="L14" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
       <c r="M14" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="N14" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="O14" t="s">
-        <v>442</v>
+        <v>483</v>
       </c>
       <c r="P14" t="s">
-        <v>443</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -5298,99 +5496,99 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="C15" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="D15" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="E15" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="F15" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="G15" t="s">
-        <v>421</v>
+        <v>462</v>
       </c>
       <c r="H15" t="s">
-        <v>427</v>
+        <v>468</v>
       </c>
       <c r="I15" t="s">
-        <v>404</v>
+        <v>445</v>
       </c>
       <c r="J15" t="s">
-        <v>429</v>
+        <v>470</v>
       </c>
       <c r="K15" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="L15" t="s">
-        <v>440</v>
+        <v>481</v>
       </c>
       <c r="M15" t="s">
-        <v>441</v>
+        <v>482</v>
       </c>
       <c r="N15" t="s">
-        <v>442</v>
+        <v>483</v>
       </c>
       <c r="O15" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="P15" t="s">
-        <v>444</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="B16" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="C16" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="D16" t="s">
-        <v>403</v>
+        <v>444</v>
       </c>
       <c r="E16" t="s">
-        <v>408</v>
+        <v>449</v>
       </c>
       <c r="F16" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="G16" t="s">
-        <v>422</v>
+        <v>463</v>
       </c>
       <c r="H16" t="s">
-        <v>428</v>
+        <v>469</v>
       </c>
       <c r="I16" t="s">
-        <v>432</v>
+        <v>473</v>
       </c>
       <c r="J16" t="s">
-        <v>435</v>
+        <v>476</v>
       </c>
       <c r="K16" t="s">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="L16" t="s">
-        <v>400</v>
+        <v>441</v>
       </c>
       <c r="M16" t="s">
-        <v>407</v>
+        <v>448</v>
       </c>
       <c r="N16" t="s">
-        <v>443</v>
+        <v>484</v>
       </c>
       <c r="O16" t="s">
-        <v>444</v>
+        <v>485</v>
       </c>
       <c r="P16" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5632,16 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>491</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>511</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>531</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5452,36 +5650,36 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>450</v>
+        <v>492</v>
       </c>
       <c r="D3" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="E3" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="F3" t="s">
-        <v>490</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>445</v>
+        <v>486</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>493</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>513</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>533</v>
       </c>
       <c r="F4" t="s">
-        <v>491</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5490,36 +5688,36 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="D5" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="E5" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="F5" t="s">
-        <v>492</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>495</v>
       </c>
       <c r="D6" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
       <c r="E6" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="F6" t="s">
-        <v>493</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5528,36 +5726,36 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>452</v>
+        <v>496</v>
       </c>
       <c r="D7" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="E7" t="s">
-        <v>481</v>
+        <v>536</v>
       </c>
       <c r="F7" t="s">
-        <v>494</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>446</v>
+        <v>487</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>497</v>
       </c>
       <c r="D8" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>537</v>
       </c>
       <c r="F8" t="s">
-        <v>495</v>
+        <v>557</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5566,36 +5764,36 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>453</v>
+        <v>498</v>
       </c>
       <c r="D9" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="E9" t="s">
-        <v>482</v>
+        <v>538</v>
       </c>
       <c r="F9" t="s">
-        <v>496</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>447</v>
+        <v>488</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>499</v>
       </c>
       <c r="D10" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>539</v>
       </c>
       <c r="F10" t="s">
-        <v>497</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5604,36 +5802,36 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>454</v>
+        <v>500</v>
       </c>
       <c r="D11" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="E11" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
       <c r="F11" t="s">
-        <v>498</v>
+        <v>560</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>448</v>
+        <v>489</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>455</v>
+        <v>501</v>
       </c>
       <c r="D12" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>541</v>
       </c>
       <c r="F12" t="s">
-        <v>157</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5642,36 +5840,36 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>456</v>
+        <v>502</v>
       </c>
       <c r="D13" t="s">
-        <v>471</v>
+        <v>522</v>
       </c>
       <c r="E13" t="s">
-        <v>484</v>
+        <v>542</v>
       </c>
       <c r="F13" t="s">
-        <v>499</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>503</v>
       </c>
       <c r="D14" t="s">
-        <v>472</v>
+        <v>523</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>543</v>
       </c>
       <c r="F14" t="s">
-        <v>500</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5680,36 +5878,36 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>457</v>
+        <v>504</v>
       </c>
       <c r="D15" t="s">
-        <v>473</v>
+        <v>524</v>
       </c>
       <c r="E15" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="F15" t="s">
-        <v>501</v>
+        <v>563</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>505</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>525</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>545</v>
       </c>
       <c r="F16" t="s">
-        <v>248</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5718,16 +5916,16 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>458</v>
+        <v>506</v>
       </c>
       <c r="D17" t="s">
-        <v>474</v>
+        <v>526</v>
       </c>
       <c r="E17" t="s">
-        <v>486</v>
+        <v>546</v>
       </c>
       <c r="F17" t="s">
-        <v>502</v>
+        <v>565</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5738,16 +5936,16 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>507</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>527</v>
       </c>
       <c r="E18" t="s">
-        <v>487</v>
+        <v>547</v>
       </c>
       <c r="F18" t="s">
-        <v>503</v>
+        <v>566</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5756,36 +5954,36 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>459</v>
+        <v>508</v>
       </c>
       <c r="D19" t="s">
-        <v>475</v>
+        <v>528</v>
       </c>
       <c r="E19" t="s">
-        <v>488</v>
+        <v>548</v>
       </c>
       <c r="F19" t="s">
-        <v>504</v>
+        <v>567</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>460</v>
+        <v>509</v>
       </c>
       <c r="D20" t="s">
-        <v>476</v>
+        <v>529</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>549</v>
       </c>
       <c r="F20" t="s">
-        <v>505</v>
+        <v>568</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5794,16 +5992,16 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>461</v>
+        <v>510</v>
       </c>
       <c r="D21" t="s">
-        <v>477</v>
+        <v>530</v>
       </c>
       <c r="E21" t="s">
-        <v>489</v>
+        <v>550</v>
       </c>
       <c r="F21" t="s">
-        <v>506</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -5833,28 +6031,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5862,28 +6060,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="C2" t="s">
-        <v>510</v>
+        <v>573</v>
       </c>
       <c r="D2" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="E2" t="s">
-        <v>532</v>
+        <v>597</v>
       </c>
       <c r="F2" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="G2" t="s">
-        <v>512</v>
+        <v>575</v>
       </c>
       <c r="H2" t="s">
-        <v>542</v>
+        <v>607</v>
       </c>
       <c r="I2" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5891,28 +6089,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="C3" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
       <c r="D3" t="s">
-        <v>521</v>
+        <v>586</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>533</v>
+        <v>598</v>
       </c>
       <c r="G3" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="H3" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="I3" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5920,28 +6118,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="C4" t="s">
-        <v>512</v>
+        <v>575</v>
       </c>
       <c r="D4" t="s">
-        <v>522</v>
+        <v>587</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="F4" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="G4" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="H4" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="I4" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5949,231 +6147,231 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="C5" t="s">
-        <v>513</v>
+        <v>576</v>
       </c>
       <c r="D5" t="s">
-        <v>523</v>
+        <v>588</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="F5" t="s">
-        <v>534</v>
+        <v>599</v>
       </c>
       <c r="G5" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="H5" t="s">
-        <v>495</v>
+        <v>585</v>
       </c>
       <c r="I5" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>507</v>
+        <v>570</v>
       </c>
       <c r="B6" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="C6" t="s">
-        <v>514</v>
+        <v>577</v>
       </c>
       <c r="D6" t="s">
-        <v>524</v>
+        <v>589</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="F6" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="G6" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="H6" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="I6" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>447</v>
+        <v>488</v>
       </c>
       <c r="B7" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="C7" t="s">
-        <v>515</v>
+        <v>578</v>
       </c>
       <c r="D7" t="s">
-        <v>525</v>
+        <v>590</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="F7" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="G7" t="s">
-        <v>538</v>
+        <v>603</v>
       </c>
       <c r="H7" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="I7" t="s">
-        <v>548</v>
+        <v>613</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>448</v>
+        <v>489</v>
       </c>
       <c r="B8" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="C8" t="s">
-        <v>516</v>
+        <v>579</v>
       </c>
       <c r="D8" t="s">
-        <v>526</v>
+        <v>591</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F8" t="s">
-        <v>535</v>
+        <v>600</v>
       </c>
       <c r="G8" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="H8" t="s">
-        <v>543</v>
+        <v>608</v>
       </c>
       <c r="I8" t="s">
-        <v>549</v>
+        <v>614</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="B9" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="C9" t="s">
-        <v>517</v>
+        <v>580</v>
       </c>
       <c r="D9" t="s">
-        <v>527</v>
+        <v>592</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="F9" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="G9" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="H9" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="I9" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="B10" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="C10" t="s">
-        <v>518</v>
+        <v>581</v>
       </c>
       <c r="D10" t="s">
-        <v>528</v>
+        <v>593</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F10" t="s">
-        <v>536</v>
+        <v>601</v>
       </c>
       <c r="G10" t="s">
-        <v>539</v>
+        <v>604</v>
       </c>
       <c r="H10" t="s">
-        <v>544</v>
+        <v>609</v>
       </c>
       <c r="I10" t="s">
-        <v>550</v>
+        <v>615</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>508</v>
+        <v>571</v>
       </c>
       <c r="B11" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="C11" t="s">
-        <v>497</v>
+        <v>582</v>
       </c>
       <c r="D11" t="s">
-        <v>529</v>
+        <v>594</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="G11" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="H11" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="B12" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="C12" t="s">
-        <v>519</v>
+        <v>583</v>
       </c>
       <c r="D12" t="s">
-        <v>530</v>
+        <v>595</v>
       </c>
       <c r="E12" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="F12" t="s">
-        <v>537</v>
+        <v>602</v>
       </c>
       <c r="G12" t="s">
-        <v>540</v>
+        <v>605</v>
       </c>
       <c r="H12" t="s">
-        <v>545</v>
+        <v>610</v>
       </c>
       <c r="I12" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -6181,57 +6379,57 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="C13" t="s">
-        <v>520</v>
+        <v>584</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="F13" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="G13" t="s">
-        <v>541</v>
+        <v>606</v>
       </c>
       <c r="H13" t="s">
-        <v>546</v>
+        <v>611</v>
       </c>
       <c r="I13" t="s">
-        <v>551</v>
+        <v>616</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="B14" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="C14" t="s">
-        <v>495</v>
+        <v>585</v>
       </c>
       <c r="D14" t="s">
-        <v>531</v>
+        <v>596</v>
       </c>
       <c r="E14" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="H14" t="s">
-        <v>547</v>
+        <v>612</v>
       </c>
       <c r="I14" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -6261,31 +6459,31 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>507</v>
+        <v>570</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>447</v>
+        <v>488</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>448</v>
+        <v>489</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>508</v>
+        <v>571</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -6293,43 +6491,43 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
-        <v>552</v>
+        <v>617</v>
       </c>
       <c r="D2" t="s">
+        <v>481</v>
+      </c>
+      <c r="E2" t="s">
+        <v>618</v>
+      </c>
+      <c r="F2" t="s">
+        <v>619</v>
+      </c>
+      <c r="G2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H2" t="s">
+        <v>620</v>
+      </c>
+      <c r="I2" t="s">
+        <v>621</v>
+      </c>
+      <c r="J2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K2" t="s">
+        <v>145</v>
+      </c>
+      <c r="L2" t="s">
+        <v>622</v>
+      </c>
+      <c r="M2" t="s">
         <v>440</v>
       </c>
-      <c r="E2" t="s">
-        <v>553</v>
-      </c>
-      <c r="F2" t="s">
-        <v>554</v>
-      </c>
-      <c r="G2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H2" t="s">
-        <v>555</v>
-      </c>
-      <c r="I2" t="s">
-        <v>556</v>
-      </c>
-      <c r="J2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K2" t="s">
-        <v>129</v>
-      </c>
-      <c r="L2" t="s">
-        <v>557</v>
-      </c>
-      <c r="M2" t="s">
-        <v>399</v>
-      </c>
       <c r="N2" t="s">
-        <v>558</v>
+        <v>623</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -6337,43 +6535,43 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>552</v>
+        <v>617</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="D3" t="s">
-        <v>397</v>
+        <v>438</v>
       </c>
       <c r="E3" t="s">
-        <v>559</v>
+        <v>624</v>
       </c>
       <c r="F3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I3" t="s">
+        <v>200</v>
+      </c>
+      <c r="J3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K3" t="s">
         <v>224</v>
       </c>
-      <c r="G3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H3" t="s">
-        <v>174</v>
-      </c>
-      <c r="I3" t="s">
-        <v>184</v>
-      </c>
-      <c r="J3" t="s">
-        <v>395</v>
-      </c>
-      <c r="K3" t="s">
-        <v>208</v>
-      </c>
       <c r="L3" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="M3" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="N3" t="s">
-        <v>556</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -6381,43 +6579,43 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>440</v>
+        <v>481</v>
       </c>
       <c r="C4" t="s">
-        <v>397</v>
+        <v>438</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="E4" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="F4" t="s">
-        <v>432</v>
+        <v>473</v>
       </c>
       <c r="G4" t="s">
-        <v>560</v>
+        <v>625</v>
       </c>
       <c r="H4" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="I4" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="J4" t="s">
-        <v>561</v>
+        <v>626</v>
       </c>
       <c r="K4" t="s">
-        <v>562</v>
+        <v>627</v>
       </c>
       <c r="L4" t="s">
-        <v>563</v>
+        <v>628</v>
       </c>
       <c r="M4" t="s">
-        <v>564</v>
+        <v>629</v>
       </c>
       <c r="N4" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -6425,351 +6623,351 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>553</v>
+        <v>618</v>
       </c>
       <c r="C5" t="s">
-        <v>559</v>
+        <v>624</v>
       </c>
       <c r="D5" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="G5" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="H5" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="I5" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="J5" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="K5" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="L5" t="s">
-        <v>51</v>
+        <v>630</v>
       </c>
       <c r="M5" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="N5" t="s">
-        <v>565</v>
+        <v>631</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>507</v>
+        <v>570</v>
       </c>
       <c r="B6" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
       <c r="C6" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="D6" t="s">
-        <v>432</v>
+        <v>473</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="G6" t="s">
-        <v>566</v>
+        <v>632</v>
       </c>
       <c r="H6" t="s">
-        <v>567</v>
+        <v>633</v>
       </c>
       <c r="I6" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="J6" t="s">
-        <v>568</v>
+        <v>634</v>
       </c>
       <c r="K6" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="L6" t="s">
-        <v>560</v>
+        <v>625</v>
       </c>
       <c r="M6" t="s">
-        <v>569</v>
+        <v>635</v>
       </c>
       <c r="N6" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>447</v>
+        <v>488</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="C7" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="D7" t="s">
-        <v>560</v>
+        <v>625</v>
       </c>
       <c r="E7" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="F7" t="s">
-        <v>566</v>
+        <v>632</v>
       </c>
       <c r="G7" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="H7" t="s">
-        <v>570</v>
+        <v>636</v>
       </c>
       <c r="I7" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="J7" t="s">
-        <v>571</v>
+        <v>637</v>
       </c>
       <c r="K7" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="L7" t="s">
-        <v>572</v>
+        <v>638</v>
       </c>
       <c r="M7" t="s">
-        <v>573</v>
+        <v>639</v>
       </c>
       <c r="N7" t="s">
-        <v>574</v>
+        <v>640</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>448</v>
+        <v>489</v>
       </c>
       <c r="B8" t="s">
-        <v>555</v>
+        <v>620</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="D8" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="E8" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="F8" t="s">
-        <v>567</v>
+        <v>633</v>
       </c>
       <c r="G8" t="s">
-        <v>570</v>
+        <v>636</v>
       </c>
       <c r="H8" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="I8" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="J8" t="s">
-        <v>575</v>
+        <v>641</v>
       </c>
       <c r="K8" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="L8" t="s">
-        <v>576</v>
+        <v>642</v>
       </c>
       <c r="M8" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="N8" t="s">
-        <v>577</v>
+        <v>643</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="B9" t="s">
-        <v>556</v>
+        <v>621</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="D9" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="F9" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="G9" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="H9" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="I9" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="J9" t="s">
-        <v>578</v>
+        <v>644</v>
       </c>
       <c r="K9" t="s">
-        <v>512</v>
+        <v>575</v>
       </c>
       <c r="L9" t="s">
-        <v>579</v>
+        <v>645</v>
       </c>
       <c r="M9" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="N9" t="s">
-        <v>580</v>
+        <v>646</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C10" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="D10" t="s">
-        <v>561</v>
+        <v>626</v>
       </c>
       <c r="E10" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="F10" t="s">
-        <v>568</v>
+        <v>634</v>
       </c>
       <c r="G10" t="s">
-        <v>571</v>
+        <v>637</v>
       </c>
       <c r="H10" t="s">
-        <v>575</v>
+        <v>641</v>
       </c>
       <c r="I10" t="s">
-        <v>578</v>
+        <v>644</v>
       </c>
       <c r="J10" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="K10" t="s">
-        <v>581</v>
+        <v>647</v>
       </c>
       <c r="L10" t="s">
-        <v>582</v>
+        <v>648</v>
       </c>
       <c r="M10" t="s">
-        <v>583</v>
+        <v>649</v>
       </c>
       <c r="N10" t="s">
-        <v>584</v>
+        <v>650</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>508</v>
+        <v>571</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="D11" t="s">
-        <v>562</v>
+        <v>627</v>
       </c>
       <c r="E11" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="F11" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="G11" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="H11" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="I11" t="s">
-        <v>512</v>
+        <v>575</v>
       </c>
       <c r="J11" t="s">
-        <v>581</v>
+        <v>647</v>
       </c>
       <c r="K11" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="L11" t="s">
-        <v>585</v>
+        <v>651</v>
       </c>
       <c r="M11" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="N11" t="s">
-        <v>586</v>
+        <v>652</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="B12" t="s">
-        <v>557</v>
+        <v>622</v>
       </c>
       <c r="C12" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="D12" t="s">
-        <v>563</v>
+        <v>628</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>630</v>
       </c>
       <c r="F12" t="s">
-        <v>560</v>
+        <v>625</v>
       </c>
       <c r="G12" t="s">
-        <v>572</v>
+        <v>638</v>
       </c>
       <c r="H12" t="s">
-        <v>576</v>
+        <v>642</v>
       </c>
       <c r="I12" t="s">
-        <v>579</v>
+        <v>645</v>
       </c>
       <c r="J12" t="s">
-        <v>582</v>
+        <v>648</v>
       </c>
       <c r="K12" t="s">
-        <v>585</v>
+        <v>651</v>
       </c>
       <c r="L12" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="M12" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="N12" t="s">
-        <v>587</v>
+        <v>653</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -6777,87 +6975,87 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="D13" t="s">
-        <v>564</v>
+        <v>629</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="F13" t="s">
-        <v>569</v>
+        <v>635</v>
       </c>
       <c r="G13" t="s">
-        <v>573</v>
+        <v>639</v>
       </c>
       <c r="H13" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="I13" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="J13" t="s">
-        <v>583</v>
+        <v>649</v>
       </c>
       <c r="K13" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="L13" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="M13" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="N13" t="s">
-        <v>588</v>
+        <v>654</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="B14" t="s">
-        <v>558</v>
+        <v>623</v>
       </c>
       <c r="C14" t="s">
-        <v>556</v>
+        <v>621</v>
       </c>
       <c r="D14" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="E14" t="s">
-        <v>565</v>
+        <v>631</v>
       </c>
       <c r="F14" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="G14" t="s">
-        <v>574</v>
+        <v>640</v>
       </c>
       <c r="H14" t="s">
-        <v>577</v>
+        <v>643</v>
       </c>
       <c r="I14" t="s">
-        <v>580</v>
+        <v>646</v>
       </c>
       <c r="J14" t="s">
-        <v>584</v>
+        <v>650</v>
       </c>
       <c r="K14" t="s">
-        <v>586</v>
+        <v>652</v>
       </c>
       <c r="L14" t="s">
-        <v>587</v>
+        <v>653</v>
       </c>
       <c r="M14" t="s">
-        <v>588</v>
+        <v>654</v>
       </c>
       <c r="N14" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
